--- a/data/09_29_25_tradewheel_scrap.xlsx
+++ b/data/09_29_25_tradewheel_scrap.xlsx
@@ -435,7 +435,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
@@ -477,391 +477,391 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9 hours ago</t>
+          <t>3 minutes ago</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Requirement for truck transmission</t>
+          <t>Requirement For Shipping Services</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/requirement-for-truck-transmission/880459/</t>
+          <t>https://www.tradewheel.com/buyers/requirement-for-shipping-services/880515/</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hi there, We have demand for truck transmission. Could you please send us the best price quotation for bulk purchase.</t>
+          <t>Hello I am looking for Shipping Services in Switzerland. We need to move our items from China the weight of total items would be more than 200kg please write to us as early as possible. Thank you</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9 hours ago</t>
+          <t>10 hours ago</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Want to buy Loose Gemstone</t>
+          <t>Requirement for truck transmission</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-buy-loose-gemstone/880458/</t>
+          <t>https://www.tradewheel.com/buyers/requirement-for-truck-transmission/880459/</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hey, I need to purchase Loose Gemstone in bulk quantity. Kindly share the price list along the shipping charges and the other details.</t>
+          <t>Hi there, We have demand for truck transmission. Could you please send us the best price quotation for bulk purchase.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9 hours ago</t>
+          <t>10 hours ago</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Importing Aluminum Ingots - Need quotes</t>
+          <t>Want to buy Loose Gemstone</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/importing-aluminum-ingots-need-quotes/880457/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-buy-loose-gemstone/880458/</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hello dear, I require Aluminum Ingots for export to europe for project use. Let me know the prices as per tons and the further details.</t>
+          <t>Hey, I need to purchase Loose Gemstone in bulk quantity. Kindly share the price list along the shipping charges and the other details.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9 hours ago</t>
+          <t>10 hours ago</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Immediate purchase - Cotton Seed Hull</t>
+          <t>Importing Aluminum Ingots - Need quotes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/immediate-purchase-cotton-seed-hull/880456/</t>
+          <t>https://www.tradewheel.com/buyers/importing-aluminum-ingots-need-quotes/880457/</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hello, We are willing to purchase Cotton Seed Hull. Kindly suggest the best prices and more details.</t>
+          <t>Hello dear, I require Aluminum Ingots for export to europe for project use. Let me know the prices as per tons and the further details.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9 hours ago</t>
+          <t>10 hours ago</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Would like to buy Egg Incubator</t>
+          <t>Immediate purchase - Cotton Seed Hull</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-buy-egg-incubator/880455/</t>
+          <t>https://www.tradewheel.com/buyers/immediate-purchase-cotton-seed-hull/880456/</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hey there, I am seeking to purchase Egg Incubator for wholesale. Quote prices and share the details.</t>
+          <t>Hello, We are willing to purchase Cotton Seed Hull. Kindly suggest the best prices and more details.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9 hours ago</t>
+          <t>10 hours ago</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Quotation for Planners,Organizers,Notebooks,Professional Bags,Folders</t>
+          <t>Would like to buy Egg Incubator</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/quotation-for-plannersorganizersnotebooksprofessional-bagsfolders/880454/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-buy-egg-incubator/880455/</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hello mate, We are in need of Planners,Organizers,Notebooks,Professional Bags,Folders from manufacturer. Share the quotes and details with product pictures.</t>
+          <t>Hey there, I am seeking to purchase Egg Incubator for wholesale. Quote prices and share the details.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9 hours ago</t>
+          <t>10 hours ago</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RFQ for Retatrutide</t>
+          <t>Quotation for Planners,Organizers,Notebooks,Professional Bags,Folders</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rfq-for-retatrutide/880453/</t>
+          <t>https://www.tradewheel.com/buyers/quotation-for-plannersorganizersnotebooksprofessional-bagsfolders/880454/</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hi there, I need prices and full details for buying Retatrutide with private labelling. Let me know availability ASAP.</t>
+          <t>Hello mate, We are in need of Planners,Organizers,Notebooks,Professional Bags,Folders from manufacturer. Share the quotes and details with product pictures.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9 hours ago</t>
+          <t>10 hours ago</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Bulk purchase inquire for Rice</t>
+          <t>RFQ for Retatrutide</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/bulk-purchase-inquire-for-rice/880452/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-retatrutide/880453/</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hi buddy, I am ready for bulk purchase of Rice for export to europe. Let me know the prices and details.</t>
+          <t>Hi there, I need prices and full details for buying Retatrutide with private labelling. Let me know availability ASAP.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9 hours ago</t>
+          <t>10 hours ago</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Looking for continuous supply of Nickel Wire</t>
+          <t>Bulk purchase inquire for Rice</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-continuous-supply-of-nickel-wire/880451/</t>
+          <t>https://www.tradewheel.com/buyers/bulk-purchase-inquire-for-rice/880452/</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hey there, We would like to import Nickel Wire for UAE project. Suggest the best prices and other details.</t>
+          <t>Hi buddy, I am ready for bulk purchase of Rice for export to europe. Let me know the prices and details.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9 hours ago</t>
+          <t>10 hours ago</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>OEM Require for Hooks &amp; Rails</t>
+          <t>Looking for continuous supply of Nickel Wire</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/oem-require-for-hooks-rails/880450/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-continuous-supply-of-nickel-wire/880451/</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hey there, Quote prices and share the information for procuring Hooks &amp; Rails on large scale.</t>
+          <t>Hey there, We would like to import Nickel Wire for UAE project. Suggest the best prices and other details.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9 hours ago</t>
+          <t>10 hours ago</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sourcing Soccer Wear at competitive prices</t>
+          <t>OEM Require for Hooks &amp; Rails</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/sourcing-soccer-wear-at-competitive-prices/880449/</t>
+          <t>https://www.tradewheel.com/buyers/oem-require-for-hooks-rails/880450/</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hello dear, I am looking for continuous supply of Soccer Wear with custom specs. Contact me so that i can tell you my requirements.</t>
+          <t>Hey there, Quote prices and share the information for procuring Hooks &amp; Rails on large scale.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9 hours ago</t>
+          <t>10 hours ago</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Urgent requirement for Headlamp, Fog lamp, Tail lamp, Grille,Trailer Cover</t>
+          <t>Sourcing Soccer Wear at competitive prices</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/urgent-requirement-for-headlamp-fog-lamp-tail-lamp/880448/</t>
+          <t>https://www.tradewheel.com/buyers/sourcing-soccer-wear-at-competitive-prices/880449/</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hello dear, I have bulk order for Headlamp, Fog lamp, Tail lamp, Grille,Trailer Cover. Need prices and details.</t>
+          <t>Hello dear, I am looking for continuous supply of Soccer Wear with custom specs. Contact me so that i can tell you my requirements.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Puerto Rico</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -871,29 +871,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Seeking to purchase Awnings</t>
+          <t>Urgent requirement for Headlamp, Fog lamp, Tail lamp, Grille,Trailer Cover</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-to-purchase-awnings/880447/</t>
+          <t>https://www.tradewheel.com/buyers/urgent-requirement-for-headlamp-fog-lamp-tail-lamp/880448/</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hello, We need a supplier who can supply us the bulk quantity of Awnings in reasonable prices.</t>
+          <t>Hello dear, I have bulk order for Headlamp, Fog lamp, Tail lamp, Grille,Trailer Cover. Need prices and details.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Puerto Rico</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -903,29 +903,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Prices for E-cigarette</t>
+          <t>Seeking to purchase Awnings</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/prices-for-e-cigarette/880446/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-to-purchase-awnings/880447/</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Hello, I am procuring E-cigarette with private labelling. Kindly send the quotes and details ASAP.</t>
+          <t>Hello, We need a supplier who can supply us the bulk quantity of Awnings in reasonable prices.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -935,22 +935,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Want to buy Aluminum Scrap, Alloy Wheel Scrap</t>
+          <t>Prices for E-cigarette</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-buy-aluminum-scrap-alloy-wheel-scrap/880445/</t>
+          <t>https://www.tradewheel.com/buyers/prices-for-e-cigarette/880446/</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Hey friend, I am interested in purchasing Aluminum Scrap, Alloy Wheel Scrap in bulk quantity. Let me know the availability and price list.</t>
+          <t>Hello, I am procuring E-cigarette with private labelling. Kindly send the quotes and details ASAP.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -967,29 +967,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Buying Gypsum Powder for export buyers</t>
+          <t>Want to buy Aluminum Scrap, Alloy Wheel Scrap</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-gypsum-powder-for-export-buyers/880444/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-buy-aluminum-scrap-alloy-wheel-scrap/880445/</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Dear Sir / Madam, We are here likely to purchase Gypsum Powder with custom specs. Let me know the price quotation and other details.</t>
+          <t>Hey friend, I am interested in purchasing Aluminum Scrap, Alloy Wheel Scrap in bulk quantity. Let me know the availability and price list.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -999,29 +999,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Need Temperature Instruments for export</t>
+          <t>Buying Gypsum Powder for export buyers</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-temperature-instruments-for-export/880443/</t>
+          <t>https://www.tradewheel.com/buyers/buying-gypsum-powder-for-export-buyers/880444/</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Hello dear, I have rush order for Temperature Instruments. Contact ASAP.</t>
+          <t>Dear Sir / Madam, We are here likely to purchase Gypsum Powder with custom specs. Let me know the price quotation and other details.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1031,29 +1031,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Desire for buying Nutella, Drinks, Milk, Oil</t>
+          <t>Need Temperature Instruments for export</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/desire-for-buying-nutella-drinks-milk-oil/880442/</t>
+          <t>https://www.tradewheel.com/buyers/need-temperature-instruments-for-export/880443/</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hello mate, We wish to purchase Nutella, Drinks, Milk, Oil for E-commerce store launch. Share the price quotation and other details.</t>
+          <t>Hello dear, I have rush order for Temperature Instruments. Contact ASAP.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1063,29 +1063,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Requirement for Fresh Gala Apples, Red Apples, Sweet Apples, Crisp Apples</t>
+          <t>Desire for buying Nutella, Drinks, Milk, Oil</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/requirement-for-fresh-gala-apples-red-apples-sweet/880441/</t>
+          <t>https://www.tradewheel.com/buyers/desire-for-buying-nutella-drinks-milk-oil/880442/</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hey mate, We are sourcing Fresh Gala Apples, Red Apples, Sweet Apples, Crisp Apples at competitive prices. Send the details and price list.</t>
+          <t>Hello mate, We wish to purchase Nutella, Drinks, Milk, Oil for E-commerce store launch. Share the price quotation and other details.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1095,29 +1095,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>OEM Require for Rubber Product Making Machinery</t>
+          <t>Requirement for Fresh Gala Apples, Red Apples, Sweet Apples, Crisp Apples</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/oem-require-for-rubber-product-making-machinery/880440/</t>
+          <t>https://www.tradewheel.com/buyers/requirement-for-fresh-gala-apples-red-apples-sweet/880441/</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hi there, I am buying Rubber Product Making Machinery for industrial use. Let me know the price list along the delivery charges and other details.</t>
+          <t>Hey mate, We are sourcing Fresh Gala Apples, Red Apples, Sweet Apples, Crisp Apples at competitive prices. Send the details and price list.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Myanmar</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1127,22 +1127,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>In need of Copper Wire Scrap , Copper Scrap from manufacturer</t>
+          <t>OEM Require for Rubber Product Making Machinery</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-need-of-copper-wire-scrap-copper/880439/</t>
+          <t>https://www.tradewheel.com/buyers/oem-require-for-rubber-product-making-machinery/880440/</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Hey there, I am intending to purchase Copper Wire Scrap , Copper Scrap on large scale. Quote prices and send the more details ASAP.</t>
+          <t>Hi there, I am buying Rubber Product Making Machinery for industrial use. Let me know the price list along the delivery charges and other details.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -1159,29 +1159,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Require Laminating Machines for export to UAE</t>
+          <t>In need of Copper Wire Scrap , Copper Scrap from manufacturer</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/require-laminating-machines-for-export-to-uae/880438/</t>
+          <t>https://www.tradewheel.com/buyers/in-need-of-copper-wire-scrap-copper/880439/</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Hey mate, We are requesting prices and details for buying Laminating Machines.</t>
+          <t>Hey there, I am intending to purchase Copper Wire Scrap , Copper Scrap on large scale. Quote prices and send the more details ASAP.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1191,29 +1191,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Purchasing Tizaro ,Tirzepatide in bulk</t>
+          <t>Require Laminating Machines for export to UAE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/purchasing-tizaro-tirzepatide-in-bulk/880437/</t>
+          <t>https://www.tradewheel.com/buyers/require-laminating-machines-for-export-to-uae/880438/</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Hello, I need urgently Tizaro ,Tirzepatide - MOQ 1,000 Units. Send price list and other details.</t>
+          <t>Hey mate, We are requesting prices and details for buying Laminating Machines.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1223,29 +1223,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Would like to buy Fresh Tomatoes</t>
+          <t>Purchasing Tizaro ,Tirzepatide in bulk</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-buy-fresh-tomatoes/880436/</t>
+          <t>https://www.tradewheel.com/buyers/purchasing-tizaro-tirzepatide-in-bulk/880437/</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Hi there, We are looking to purchase Fresh Tomatoes for retail chain supply. Let me know the prices as per ton and the other details.</t>
+          <t>Hello, I need urgently Tizaro ,Tirzepatide - MOQ 1,000 Units. Send price list and other details.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1255,29 +1255,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>RFQ for Shoes</t>
+          <t>Would like to buy Fresh Tomatoes</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rfq-for-shoes/880435/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-buy-fresh-tomatoes/880436/</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Hi there, We are ready to buy Shoes on large scale. Kindly share the price list, catalogue and the further details.</t>
+          <t>Hi there, We are looking to purchase Fresh Tomatoes for retail chain supply. Let me know the prices as per ton and the other details.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1287,29 +1287,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Wish to purchase Agricultural Equipment</t>
+          <t>RFQ for Shoes</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/wish-to-purchase-agricultural-equipment/880434/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-shoes/880435/</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Hello, I would like to purchase Agricultural Equipment for resale. Could you please share the catalogue, price list and other details.</t>
+          <t>Hi there, We are ready to buy Shoes on large scale. Kindly share the price list, catalogue and the further details.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1319,29 +1319,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Bulk purchase inquire for Pressure Gauges</t>
+          <t>Wish to purchase Agricultural Equipment</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/bulk-purchase-inquire-for-pressure-gauges/880433/</t>
+          <t>https://www.tradewheel.com/buyers/wish-to-purchase-agricultural-equipment/880434/</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Hello friend, I want details and price quotation for buying Pressure Gauges for construction use. Let me know ASAP.</t>
+          <t>Hello, I would like to purchase Agricultural Equipment for resale. Could you please share the catalogue, price list and other details.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1351,29 +1351,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Need to purchase tons of 10 ppm Diesel Fuel EN590, Jet Fuel A1, Crude Oil</t>
+          <t>Bulk purchase inquire for Pressure Gauges</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-to-purchase-tons-of-10-ppm-diesel/880432/</t>
+          <t>https://www.tradewheel.com/buyers/bulk-purchase-inquire-for-pressure-gauges/880433/</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Hello. I am planning for bulk purchase of 10 ppm Diesel Fuel EN590, Jet Fuel A1, Crude Oil. Quote prices and send the proper information.</t>
+          <t>Hello friend, I want details and price quotation for buying Pressure Gauges for construction use. Let me know ASAP.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1383,29 +1383,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Want to buy Copper Wire Scrap, Copper Isotope, Copper Cathode, Pure Cobalt</t>
+          <t>Need to purchase tons of 10 ppm Diesel Fuel EN590, Jet Fuel A1, Crude Oil</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-buy-copper-wire-scrap-copper-isotope/880431/</t>
+          <t>https://www.tradewheel.com/buyers/need-to-purchase-tons-of-10-ppm-diesel/880432/</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Hey mate, We are seeking to purchase Copper Wire Scrap, Copper Isotope, Copper Cathode, Pure Cobalt. Contact us so that we can tell you our requirements.</t>
+          <t>Hello. I am planning for bulk purchase of 10 ppm Diesel Fuel EN590, Jet Fuel A1, Crude Oil. Quote prices and send the proper information.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1415,662 +1415,662 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Quote prices for Californium Stone, Fire Stone, Thunder Stones</t>
+          <t>Want to buy Copper Wire Scrap, Copper Isotope, Copper Cathode, Pure Cobalt</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/quote-prices-for-californium-stone-fire-stone-thunder/880430/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-buy-copper-wire-scrap-copper-isotope/880431/</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Hi there, I am searching for supplier of Californium Stone, Fire Stone, Thunder Stones. Suggest the prices and other details.</t>
+          <t>Hey mate, We are seeking to purchase Copper Wire Scrap, Copper Isotope, Copper Cathode, Pure Cobalt. Contact us so that we can tell you our requirements.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>11 hours ago</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Looking for Refrigerators with custom specs</t>
+          <t>Quote prices for Californium Stone, Fire Stone, Thunder Stones</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-refrigerators-with-custom-specs/880429/</t>
+          <t>https://www.tradewheel.com/buyers/quote-prices-for-californium-stone-fire-stone-thunder/880430/</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Hello mate, I am here likely to purchase Refrigerators for OEM. Kindly send quotes and details.</t>
+          <t>Hi there, I am searching for supplier of Californium Stone, Fire Stone, Thunder Stones. Suggest the prices and other details.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>11 hours ago</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Immediate purchase - Cold Planer Tool Holder for Asphalt Milling Machine</t>
+          <t>Looking for Refrigerators with custom specs</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/immediate-purchase-cold-planer-tool-holder-for/880428/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-refrigerators-with-custom-specs/880429/</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Hello, We are importing Cold Planer Tool Holder for Asphalt Milling Machine on large scale. Kindly share the best price list and more details.</t>
+          <t>Hello mate, I am here likely to purchase Refrigerators for OEM. Kindly send quotes and details.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>11 hours ago</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Need Calendar for residential use</t>
+          <t>Immediate purchase - Cold Planer Tool Holder for Asphalt Milling Machine</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-calendar-for-residential-use/880427/</t>
+          <t>https://www.tradewheel.com/buyers/immediate-purchase-cold-planer-tool-holder-for/880428/</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Hey there, I have requirement for Calendar. Need quotes and other details.</t>
+          <t>Hello, We are importing Cold Planer Tool Holder for Asphalt Milling Machine on large scale. Kindly share the best price list and more details.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Syria</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>11 hours ago</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Quotation for Wheat Grain</t>
+          <t>Need Calendar for residential use</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/quotation-for-wheat-grain/880426/</t>
+          <t>https://www.tradewheel.com/buyers/need-calendar-for-residential-use/880427/</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Hello dear, Could you please share the price quotation and more details for purchasing Wheat Grain.</t>
+          <t>Hey there, I have requirement for Calendar. Need quotes and other details.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>11 hours ago</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Searching for supplier of Cutting Plotter, Mini Cutting Plotter</t>
+          <t>Quotation for Wheat Grain</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-supplier-of-cutting-plotter-mini-cutting/880425/</t>
+          <t>https://www.tradewheel.com/buyers/quotation-for-wheat-grain/880426/</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Hey there, We are interested in purchasing Cutting Plotter, Mini Cutting Plotter. Quote prices and share the details along the delivery charges.</t>
+          <t>Hello dear, Could you please share the price quotation and more details for purchasing Wheat Grain.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>11 hours ago</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Require Truck Suspension for OEM</t>
+          <t>Searching for supplier of Cutting Plotter, Mini Cutting Plotter</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/require-truck-suspension-for-oem/880424/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-supplier-of-cutting-plotter-mini-cutting/880425/</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Hi dear, I want to purchase Truck Suspension. Let me know the availability and price quotation.</t>
+          <t>Hey there, We are interested in purchasing Cutting Plotter, Mini Cutting Plotter. Quote prices and share the details along the delivery charges.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>11 hours ago</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Intending to purchase Vape, Vaporesso</t>
+          <t>Require Truck Suspension for OEM</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/intending-to-purchase-vape-vaporesso/880423/</t>
+          <t>https://www.tradewheel.com/buyers/require-truck-suspension-for-oem/880424/</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Hello friend, I need prices and the details for buying Vape, Vaporesso. Contact ASAP.</t>
+          <t>Hi dear, I want to purchase Truck Suspension. Let me know the availability and price quotation.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>11 hours ago</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Procuring Filters for resale</t>
+          <t>Intending to purchase Vape, Vaporesso</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/procuring-filters-for-resale/880422/</t>
+          <t>https://www.tradewheel.com/buyers/intending-to-purchase-vape-vaporesso/880423/</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Hi there, We are purchasing Filters in bulk. Let us know the total cost and the other details.</t>
+          <t>Hello friend, I need prices and the details for buying Vape, Vaporesso. Contact ASAP.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>11 hours ago</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Printer Ribbons needed for industrial use</t>
+          <t>Procuring Filters for resale</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/printer-ribbons-needed-for-industrial-use/880421/</t>
+          <t>https://www.tradewheel.com/buyers/procuring-filters-for-resale/880422/</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Hey friend, Quote prices and share the proper details for purchasing Printer Ribbons on large scale.</t>
+          <t>Hi there, We are purchasing Filters in bulk. Let us know the total cost and the other details.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>11 hours ago</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Rush order for Aluminum Scrap</t>
+          <t>Printer Ribbons needed for industrial use</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rush-order-for-aluminum-scrap/880420/</t>
+          <t>https://www.tradewheel.com/buyers/printer-ribbons-needed-for-industrial-use/880421/</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Hello dear, I want to place bulk order for Aluminum Scrap. Kindly suggest the best prices and other details.</t>
+          <t>Hey friend, Quote prices and share the proper details for purchasing Printer Ribbons on large scale.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>11 hours ago</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Drip Irrigation Parts supplier needed for export buyers</t>
+          <t>Rush order for Aluminum Scrap</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/drip-irrigation-parts-supplier-needed-for-export-buyers/880419/</t>
+          <t>https://www.tradewheel.com/buyers/rush-order-for-aluminum-scrap/880420/</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Hey there, I am searching for Drip Irrigation Parts. Could you please help me to procure this in reasonable prices.</t>
+          <t>Hello dear, I want to place bulk order for Aluminum Scrap. Kindly suggest the best prices and other details.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>11 hours ago</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Demand for Skin Care Serum</t>
+          <t>Drip Irrigation Parts supplier needed for export buyers</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/demand-for-skin-care-serum/880418/</t>
+          <t>https://www.tradewheel.com/buyers/drip-irrigation-parts-supplier-needed-for-export-buyers/880419/</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Hey mate, I have desire for buying Skin Care Serum for wholesale. Need price quotation and proper details.</t>
+          <t>Hey there, I am searching for Drip Irrigation Parts. Could you please help me to procure this in reasonable prices.</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>11 hours ago</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Seeking to buy Plus Size Shirts &amp; Blouses</t>
+          <t>Demand for Skin Care Serum</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-to-buy-plus-size-shirts-blouses/880417/</t>
+          <t>https://www.tradewheel.com/buyers/demand-for-skin-care-serum/880418/</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Hello, We are procuring Plus Size Shirts &amp; Blouses with private labelling. Let us know the prices, details and the MOQ.</t>
+          <t>Hey mate, I have desire for buying Skin Care Serum for wholesale. Need price quotation and proper details.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>11 hours ago</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Urgently Need Vape And Electronic Cigarettes - MOQ 1,000 Units</t>
+          <t>Seeking to buy Plus Size Shirts &amp; Blouses</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/urgently-need-vape-and-electronic-cigarettes-moq/880416/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-to-buy-plus-size-shirts-blouses/880417/</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Dear Sir / Madam, I wish to buy Vape And Electronic Cigarettes for export to europe. Kindly send the proper details and the price quotation.</t>
+          <t>Hello, We are procuring Plus Size Shirts &amp; Blouses with private labelling. Let us know the prices, details and the MOQ.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>11 hours ago</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Purchasing Tricon Bits, Drilling Bits, Cone Bits in bulk</t>
+          <t>Urgently Need Vape And Electronic Cigarettes - MOQ 1,000 Units</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/purchasing-tricon-bits-drilling-bits-cone-bits-in/880415/</t>
+          <t>https://www.tradewheel.com/buyers/urgently-need-vape-and-electronic-cigarettes-moq/880416/</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Hello dear, We are intending to purchase Tricon Bits, Drilling Bits, Cone Bits for industrial use. Quote prices and the other details.</t>
+          <t>Dear Sir / Madam, I wish to buy Vape And Electronic Cigarettes for export to europe. Kindly send the proper details and the price quotation.</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>11 hours ago</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Prices for Wigs</t>
+          <t>Purchasing Tricon Bits, Drilling Bits, Cone Bits in bulk</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/prices-for-wigs/880414/</t>
+          <t>https://www.tradewheel.com/buyers/purchasing-tricon-bits-drilling-bits-cone-bits-in/880415/</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Hey there, I am ready for bulk purchase of Wigs. Share the reasonable prices and other details.</t>
+          <t>Hello dear, We are intending to purchase Tricon Bits, Drilling Bits, Cone Bits for industrial use. Quote prices and the other details.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>11 hours ago</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Willing to purchase Liz Tox, Dermal Filler, Botulinum Toxin</t>
+          <t>Prices for Wigs</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/willing-to-purchase-liz-tox-dermal-filler-botulinum/880413/</t>
+          <t>https://www.tradewheel.com/buyers/prices-for-wigs/880414/</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Hi buddy, I am buying Liz Tox, Dermal Filler, Botulinum Toxin for wholesale. Need prices and other details for large scale purchase.</t>
+          <t>Hey there, I am ready for bulk purchase of Wigs. Share the reasonable prices and other details.</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Cayman Islands</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>11 hours ago</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Sourcing Human Hair Wigs at competitive prices</t>
+          <t>Willing to purchase Liz Tox, Dermal Filler, Botulinum Toxin</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/sourcing-human-hair-wigs-at-competitive-prices/880412/</t>
+          <t>https://www.tradewheel.com/buyers/willing-to-purchase-liz-tox-dermal-filler-botulinum/880413/</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Hello mate, I am in search of Human Hair for salon purpose. Quote the best prices and share the proper details.</t>
+          <t>Hi buddy, I am buying Liz Tox, Dermal Filler, Botulinum Toxin for wholesale. Need prices and other details for large scale purchase.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Cayman Islands</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>11 hours ago</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>OEM Require for Industrial Furnace</t>
+          <t>Sourcing Human Hair Wigs at competitive prices</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/oem-require-for-industrial-furnace/880411/</t>
+          <t>https://www.tradewheel.com/buyers/sourcing-human-hair-wigs-at-competitive-prices/880412/</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Hey mate, I would like to purchase Industrial Furnace with custom specs. Kindly share the price list along the delivery charges and proper details.</t>
+          <t>Hello mate, I am in search of Human Hair for salon purpose. Quote the best prices and share the proper details.</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>11 hours ago</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Searching for Volcanic Stone</t>
+          <t>OEM Require for Industrial Furnace</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-volcanic-stone/880410/</t>
+          <t>https://www.tradewheel.com/buyers/oem-require-for-industrial-furnace/880411/</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Hey there, I am seeking for supplier for buying bulk quantity of Volcanic Stone. Let me know the prices and details ASAP.</t>
+          <t>Hey mate, I would like to purchase Industrial Furnace with custom specs. Kindly share the price list along the delivery charges and proper details.</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -2082,59 +2082,59 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>11 hours ago</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Bulk purchase inquire for Aluminum Scrap</t>
+          <t>Searching for Volcanic Stone</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/bulk-purchase-inquire-for-aluminum-scrap/880409/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-volcanic-stone/880410/</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Hello dear, We are looking for continuous supply of Aluminum Scrap. Could you please share the details and price quotation along the shipping charges.</t>
+          <t>Hey there, I am seeking for supplier for buying bulk quantity of Volcanic Stone. Let me know the prices and details ASAP.</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>11 hours ago</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Buying Frozen Chicken for retail chain supply</t>
+          <t>Bulk purchase inquire for Aluminum Scrap</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-frozen-chicken-for-retail-chain-supply/880408/</t>
+          <t>https://www.tradewheel.com/buyers/bulk-purchase-inquire-for-aluminum-scrap/880409/</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Hello, I have urgent requirement for Frozen Chicken. Need quotes and details.</t>
+          <t>Hello dear, We are looking for continuous supply of Aluminum Scrap. Could you please share the details and price quotation along the shipping charges.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -2146,66 +2146,66 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>11 hours ago</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Copper Scrap need for E-commerce store</t>
+          <t>Buying Frozen Chicken for retail chain supply</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/copper-scrap-need-for-e-commerce-store/880407/</t>
+          <t>https://www.tradewheel.com/buyers/buying-frozen-chicken-for-retail-chain-supply/880408/</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Hello dear, We are here likely to import Copper Scrap on large scale. Kindly share the best price quotation and the more details,</t>
+          <t>Hello, I have urgent requirement for Frozen Chicken. Need quotes and details.</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>11 hours ago</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Looking to buy Self Adhesive Silicone Rubber Strip</t>
+          <t>Copper Scrap need for E-commerce store</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-to-buy-self-adhesive-silicone-rubber-strip/880406/</t>
+          <t>https://www.tradewheel.com/buyers/copper-scrap-need-for-e-commerce-store/880407/</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Hey Friend, I am eager to purchase Self Adhesive Silicone Rubber Strip Width 20mm And Thickness 4mm. Send the price list and more information.</t>
+          <t>Hello dear, We are here likely to import Copper Scrap on large scale. Kindly share the best price quotation and the more details,</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Republic of Türkiye</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2215,29 +2215,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Urgent Requirement for Alfalfa Hay</t>
+          <t>Looking to buy Self Adhesive Silicone Rubber Strip</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/urgent-requirement-for-alfalfa-hay/880405/</t>
+          <t>https://www.tradewheel.com/buyers/looking-to-buy-self-adhesive-silicone-rubber-strip/880406/</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Hey dear, We urgently need Alfalfa Hay - MOQ 1,000 Units. Share the best prices and proper details.</t>
+          <t>Hey Friend, I am eager to purchase Self Adhesive Silicone Rubber Strip Width 20mm And Thickness 4mm. Send the price list and more information.</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Republic of Türkiye</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2247,29 +2247,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Interested in buying Mobile Phones, Iphone</t>
+          <t>Urgent Requirement for Alfalfa Hay</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-buying-mobile-phones-iphone/880404/</t>
+          <t>https://www.tradewheel.com/buyers/urgent-requirement-for-alfalfa-hay/880405/</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Hey mate, We are in need of Mobile Phones, Iphone from manufacturer. Let me know the varieties you own and the price quotation.</t>
+          <t>Hey dear, We urgently need Alfalfa Hay - MOQ 1,000 Units. Share the best prices and proper details.</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2279,29 +2279,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Want to buy tons of Copper Ingots</t>
+          <t>Interested in buying Mobile Phones, Iphone</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-buy-tons-of-copper-ingots/880403/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-buying-mobile-phones-iphone/880404/</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Hey mate, We require Copper Ingots for export to UAE. Kindly share the best price list and proper information.</t>
+          <t>Hey mate, We are in need of Mobile Phones, Iphone from manufacturer. Let me know the varieties you own and the price quotation.</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2311,29 +2311,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Need to buy Power Tools, Garden Tool, Hand Tool, Socket</t>
+          <t>Want to buy tons of Copper Ingots</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-to-buy-power-tools-garden-tool-hand/880402/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-buy-tons-of-copper-ingots/880403/</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Hello, I am purchasing Power Tools, Garden Tool, Hand Tool, Socket for project use. Quote prices and share the other details.</t>
+          <t>Hey mate, We require Copper Ingots for export to UAE. Kindly share the best price list and proper information.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2343,22 +2343,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Require Baby Diapers for wholesale</t>
+          <t>Need to buy Power Tools, Garden Tool, Hand Tool, Socket</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/require-baby-diapers-for-wholesale/880401/</t>
+          <t>https://www.tradewheel.com/buyers/need-to-buy-power-tools-garden-tool-hand/880402/</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Hey there, I am willing to purchase Baby Diapers on large scale. Quote prices and share the catalogue ASAP.</t>
+          <t>Hello, I am purchasing Power Tools, Garden Tool, Hand Tool, Socket for project use. Quote prices and share the other details.</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -2375,29 +2375,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Quote prices for Icumsa 45 Sugar</t>
+          <t>Require Baby Diapers for wholesale</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/quote-prices-for-icumsa-45-sugar/880399/</t>
+          <t>https://www.tradewheel.com/buyers/require-baby-diapers-for-wholesale/880401/</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Hi there, We are planning for bulk purchase of Icumsa 45 Sugar for E-commerce store launch. Kindly share the best prices and other details.</t>
+          <t>Hey there, I am willing to purchase Baby Diapers on large scale. Quote prices and share the catalogue ASAP.</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2407,29 +2407,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Demand for Paper Boxes, Packaging Boxes, Paper Cups, Pizza Boxes</t>
+          <t>Quote prices for Icumsa 45 Sugar</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/demand-for-paper-boxes-packaging-boxes-paper-cups/880398/</t>
+          <t>https://www.tradewheel.com/buyers/quote-prices-for-icumsa-45-sugar/880399/</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Hello dear I have rush order for Paper Boxes, Packaging Boxes, Paper Cups, Pizza Boxes. Need prices and other details for bulk purchase.</t>
+          <t>Hi there, We are planning for bulk purchase of Icumsa 45 Sugar for E-commerce store launch. Kindly share the best prices and other details.</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2439,29 +2439,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Quotation for Aggregate</t>
+          <t>Demand for Paper Boxes, Packaging Boxes, Paper Cups, Pizza Boxes</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/quotation-for-aggregate/880397/</t>
+          <t>https://www.tradewheel.com/buyers/demand-for-paper-boxes-packaging-boxes-paper-cups/880398/</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Hello dear, I am looking to purchase Aggregate for construction use. Kindly send the best prices and more details.</t>
+          <t>Hello dear I have rush order for Paper Boxes, Packaging Boxes, Paper Cups, Pizza Boxes. Need prices and other details for bulk purchase.</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2471,29 +2471,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Prices for Hardware, Cross Hinges, Locks, Door Hardware, Channel Case Hinge</t>
+          <t>Quotation for Aggregate</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/prices-for-hardware-cross-hinges-locks-door-hardware/880396/</t>
+          <t>https://www.tradewheel.com/buyers/quotation-for-aggregate/880397/</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Hey there. We are buying Hardware, Cross Hinges, Locks, Door Hardware, Channel Case Hinge for industrial use. Let us know the best prices and other details.</t>
+          <t>Hello dear, I am looking to purchase Aggregate for construction use. Kindly send the best prices and more details.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2503,61 +2503,61 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>RFQ for Pharmaceutical Machinery</t>
+          <t>Prices for Hardware, Cross Hinges, Locks, Door Hardware, Channel Case Hinge</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rfq-for-pharmaceutical-machinery/880393/</t>
+          <t>https://www.tradewheel.com/buyers/prices-for-hardware-cross-hinges-locks-door-hardware/880396/</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Hey there, We are looking to purchase Pharmaceutical Machinery on large scale. Share the price list and other details.</t>
+          <t>Hey there. We are buying Hardware, Cross Hinges, Locks, Door Hardware, Channel Case Hinge for industrial use. Let us know the best prices and other details.</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>12 hours ago</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Wish to purchase Trash Bag</t>
+          <t>RFQ for Pharmaceutical Machinery</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/wish-to-purchase-trash-bag/880392/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-pharmaceutical-machinery/880393/</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Hey there. I am interested in purchasing Trash Bag for residential use. Let me know the prices and details.</t>
+          <t>Hey there, We are looking to purchase Pharmaceutical Machinery on large scale. Share the price list and other details.</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2567,182 +2567,182 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Searching For Centrifuge tube</t>
+          <t>Wish to purchase Trash Bag</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-centrifuge-tube/880377/</t>
+          <t>https://www.tradewheel.com/buyers/wish-to-purchase-trash-bag/880392/</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Hello, Our company is looking for durable and sterile centrifuge tubes with leak-proof design. Suppliers are requested to share catalog, MOQ, lead time, and competitive quotations.</t>
+          <t>Hey there. I am interested in purchasing Trash Bag for residential use. Let me know the prices and details.</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Willing to procure Industrial Vacuum Cleaner</t>
+          <t>Searching For Centrifuge tube</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/willing-to-procure-industrial-vacuum-cleaner/880368/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-centrifuge-tube/880377/</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Greetings, We are looking to purchase heavy-duty industrial vacuum cleaners with strong suction power for factory and warehouse use. Suppliers are requested to share specifications, price lists, and delivery timelines. Thank you!</t>
+          <t>Hello, Our company is looking for durable and sterile centrifuge tubes with leak-proof design. Suppliers are requested to share catalog, MOQ, lead time, and competitive quotations.</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Need Garlic Extract For Food And Health Supplement Market</t>
+          <t>Willing to procure Industrial Vacuum Cleaner</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-garlic-extract-for-food-and-health-supplement/880366/</t>
+          <t>https://www.tradewheel.com/buyers/willing-to-procure-industrial-vacuum-cleaner/880368/</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>We are sourcing garlic extract for health supplement production. Purity, concentration, and shelf life are important. Regular supply may be needed for long-term contracts. Can you provide extraction method details and available packaging sizes?</t>
+          <t>Greetings, We are looking to purchase heavy-duty industrial vacuum cleaners with strong suction power for factory and warehouse use. Suppliers are requested to share specifications, price lists, and delivery timelines. Thank you!</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Importing Electric Scooters For Consumer Market from Asian countries</t>
+          <t>Need Garlic Extract For Food And Health Supplement Market</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/importing-electric-scooters-for-consumer-market-from-asian/880365/</t>
+          <t>https://www.tradewheel.com/buyers/need-garlic-extract-for-food-and-health-supplement/880366/</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Our company is sourcing electric scooters for retail distribution. Battery life, motor efficiency, and safety standards are key. Large orders may be placed for multiple stores. Can you provide models with varying speed and range options?</t>
+          <t>We are sourcing garlic extract for health supplement production. Purity, concentration, and shelf life are important. Regular supply may be needed for long-term contracts. Can you provide extraction method details and available packaging sizes?</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Puerto Rico</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Seeking Fascia-Front Bumper For Car Parts And Service Market</t>
+          <t>Importing Electric Scooters For Consumer Market from Asian countries</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-fascia-front-bumper-for-car-parts-and-service/880364/</t>
+          <t>https://www.tradewheel.com/buyers/importing-electric-scooters-for-consumer-market-from-asian/880365/</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Looking to buy genuine front bumpers for vehicles. Material: ABS plastic / Composite Fitment: Model-specific Condition: New / OEM Packaging: Export-ready</t>
+          <t>Our company is sourcing electric scooters for retail distribution. Battery life, motor efficiency, and safety standards are key. Large orders may be placed for multiple stores. Can you provide models with varying speed and range options?</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Puerto Rico</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Need Scarves For Fashion And Apparel Market</t>
+          <t>Seeking Fascia-Front Bumper For Car Parts And Service Market</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-scarves-for-fashion-and-apparel-market/880363/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-fascia-front-bumper-for-car-parts-and-service/880364/</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Hi, I am seeking scarves for wholesale fashion supply. Material: Silk, cotton, polyester, wool Size: 60x60 cm – 180x70 cm Colors: Assorted / seasonal Packaging: Polybagged or boxed</t>
+          <t>Looking to buy genuine front bumpers for vehicles. Material: ABS plastic / Composite Fitment: Model-specific Condition: New / OEM Packaging: Export-ready</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -2754,27 +2754,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Need Home Decor Items For Residential And Commercial Use</t>
+          <t>Need Scarves For Fashion And Apparel Market</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-home-decor-items-for-residential-and-commercial/880362/</t>
+          <t>https://www.tradewheel.com/buyers/need-scarves-for-fashion-and-apparel-market/880363/</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Looking to purchase home decor items for retail supply. Type: Wall art, vases, sculptures, lighting Material: Wood, metal, ceramic, glass Packaging: Retail boxes</t>
+          <t>Hi, I am seeking scarves for wholesale fashion supply. Material: Silk, cotton, polyester, wool Size: 60x60 cm – 180x70 cm Colors: Assorted / seasonal Packaging: Polybagged or boxed</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -2786,27 +2786,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Need Rubber Pad For Industrial And Mechanical Use</t>
+          <t>Need Home Decor Items For Residential And Commercial Use</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-rubber-pad-for-industrial-and-mechanical-use/880361/</t>
+          <t>https://www.tradewheel.com/buyers/need-home-decor-items-for-residential-and-commercial/880362/</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Interested in rubber pads for industrial and machinery use. Material: EPDM / NBR / Silicone Size: Custom &amp; standard Hardness: 30–90 Shore A Application: Anti-vibration, sealing</t>
+          <t>Looking to purchase home decor items for retail supply. Type: Wall art, vases, sculptures, lighting Material: Wood, metal, ceramic, glass Packaging: Retail boxes</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -2818,475 +2818,475 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Buying Coating Machines With High Efficiency And Quality</t>
+          <t>Need Rubber Pad For Industrial And Mechanical Use</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-coating-machines-with-high-efficiency-and-quality/880359/</t>
+          <t>https://www.tradewheel.com/buyers/need-rubber-pad-for-industrial-and-mechanical-use/880361/</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>We are sourcing coating machines for industrial production. Coating uniformity, machine durability, and maintenance ease are critical. Bulk procurement may be considered for long-term projects. Do you provide automatic or semi-automatic models?</t>
+          <t>Interested in rubber pads for industrial and machinery use. Material: EPDM / NBR / Silicone Size: Custom &amp; standard Hardness: 30–90 Shore A Application: Anti-vibration, sealing</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Need Hairdressing Foil Roll For Salons And Cosmetic Use</t>
+          <t>Buying Coating Machines With High Efficiency And Quality</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-hairdressing-foil-roll-for-salons-and-cosmetic/880358/</t>
+          <t>https://www.tradewheel.com/buyers/buying-coating-machines-with-high-efficiency-and-quality/880359/</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>We require hairdressing foil rolls for salon use. Thickness, tear resistance, and length per roll are key. Regular supply may be required for multiple outlets. Can you provide different sizes and pack types?</t>
+          <t>We are sourcing coating machines for industrial production. Coating uniformity, machine durability, and maintenance ease are critical. Bulk procurement may be considered for long-term projects. Do you provide automatic or semi-automatic models?</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Seeking Cosmetics For Salons And Wholesale Market</t>
+          <t>Need Hairdressing Foil Roll For Salons And Cosmetic Use</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-cosmetics-for-salons-and-wholesale-market/880357/</t>
+          <t>https://www.tradewheel.com/buyers/need-hairdressing-foil-roll-for-salons-and-cosmetic/880358/</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>We are sourcing a range of cosmetics including skincare and makeup. Product quality, ingredient safety, and shelf life are critical. Bulk orders will be reviewed for retail channels. Do you offer private labeling and export-ready packaging?</t>
+          <t>We require hairdressing foil rolls for salon use. Thickness, tear resistance, and length per roll are key. Regular supply may be required for multiple outlets. Can you provide different sizes and pack types?</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Kiribati</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Need Tanker Truck For Industrial And Transportation Use</t>
+          <t>Seeking Cosmetics For Salons And Wholesale Market</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-tanker-truck-for-industrial-and-transportation-use/880356/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-cosmetics-for-salons-and-wholesale-market/880357/</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Our business needs tanker trucks for liquid transport. Tank capacity, build quality, and compliance with safety standards are essential. Large-volume sourcing may be needed for fleet expansion. Can you provide engine specs and available tank material...</t>
+          <t>We are sourcing a range of cosmetics including skincare and makeup. Product quality, ingredient safety, and shelf life are critical. Bulk orders will be reviewed for retail channels. Do you offer private labeling and export-ready packaging?</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Kiribati</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Seeking Vape Products For Electronic Cigarette Market</t>
+          <t>Need Tanker Truck For Industrial And Transportation Use</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-vape-products-for-electronic-cigarette-market/880355/</t>
+          <t>https://www.tradewheel.com/buyers/need-tanker-truck-for-industrial-and-transportation-use/880356/</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Our company is sourcing disposable and refillable vapes. Battery life, flavor range, and safety compliance are key concerns. Regular supply will be evaluated for retail distribution. Could you share available designs and nicotine strengths?</t>
+          <t>Our business needs tanker trucks for liquid transport. Tank capacity, build quality, and compliance with safety standards are essential. Large-volume sourcing may be needed for fleet expansion. Can you provide engine specs and available tank material...</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Want to Buy fresh and dried Mushrooms</t>
+          <t>Seeking Vape Products For Electronic Cigarette Market</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-buy-fresh-and-dried-mushrooms/880354/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-vape-products-for-electronic-cigarette-market/880355/</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Our company is interested in sourcing both fresh and dried mushrooms for retail and food processing. Please provide product details, certifications, competitive quotes, and lead times.</t>
+          <t>Our company is sourcing disposable and refillable vapes. Battery life, flavor range, and safety compliance are key concerns. Regular supply will be evaluated for retail distribution. Could you share available designs and nicotine strengths?</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Seeking Vending Machines For Food And Beverage Market</t>
+          <t>Want to Buy fresh and dried Mushrooms</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-vending-machines-for-food-and-beverage-market/880351/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-buy-fresh-and-dried-mushrooms/880354/</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Interested in vending machines for bulk supply. Type: Snack, beverage, combo Power: 110V–240V Capacity: 100–500 items Features: Cashless payment, refrigerated</t>
+          <t>Our company is interested in sourcing both fresh and dried mushrooms for retail and food processing. Please provide product details, certifications, competitive quotes, and lead times.</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Seeking Copper Scrap For Manufacturing And Metal Industry</t>
+          <t>Seeking Vending Machines For Food And Beverage Market</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-copper-scrap-for-manufacturing-and-metal-industry/880350/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-vending-machines-for-food-and-beverage-market/880351/</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Our business is sourcing copper scrap for recycling purposes. Purity levels, contamination rates, and bale weight are important. Regular supply and export packaging are needed. Could you share your average copper recovery percentage?</t>
+          <t>Interested in vending machines for bulk supply. Type: Snack, beverage, combo Power: 110V–240V Capacity: 100–500 items Features: Cashless payment, refrigerated</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Importing Aluminium Ingots A7 For Manufacturing Industry from Asian countries</t>
+          <t>Seeking Copper Scrap For Manufacturing And Metal Industry</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/importing-aluminium-ingots-a7-for-manufacturing-industry-from/880349/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-copper-scrap-for-manufacturing-and-metal-industry/880350/</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>We are sourcing A7 aluminum ingots for industrial processing. Purity, weight consistency, and mold quality are critical. Large-volume supply will be required regularly. Can you provide chemical composition and certification for export?</t>
+          <t>Our business is sourcing copper scrap for recycling purposes. Purity levels, contamination rates, and bale weight are important. Regular supply and export packaging are needed. Could you share your average copper recovery percentage?</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Buying Paper With High Quality And Standard Thickness</t>
+          <t>Importing Aluminium Ingots A7 For Manufacturing Industry from Asian countries</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-paper-with-high-quality-and-standard-thickness/880348/</t>
+          <t>https://www.tradewheel.com/buyers/importing-aluminium-ingots-a7-for-manufacturing-industry-from/880349/</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Looking to buy paper for printing and packaging. Types: Copier, kraft, card, specialty GSM: 70–350 Size: A4, A3, Custom sheets Packaging: Ream / Bulk packs</t>
+          <t>We are sourcing A7 aluminum ingots for industrial processing. Purity, weight consistency, and mold quality are critical. Large-volume supply will be required regularly. Can you provide chemical composition and certification for export?</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Need Motor Controller For Industrial And Automation Applications</t>
+          <t>Buying Paper With High Quality And Standard Thickness</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-motor-controller-for-industrial-and-automation-applications/880347/</t>
+          <t>https://www.tradewheel.com/buyers/buying-paper-with-high-quality-and-standard-thickness/880348/</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>I want motor controllers for industrial and EV applications. Type: AC / DC / BLDC Voltage: 12–480V Current: 5–200A Features: Overload, short-circuit protection Certification: CE / UL</t>
+          <t>Looking to buy paper for printing and packaging. Types: Copier, kraft, card, specialty GSM: 70–350 Size: A4, A3, Custom sheets Packaging: Ream / Bulk packs</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Need Oil Pressers For Food And Industrial Applications</t>
+          <t>Need Motor Controller For Industrial And Automation Applications</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-oil-pressers-for-food-and-industrial-applications/880346/</t>
+          <t>https://www.tradewheel.com/buyers/need-motor-controller-for-industrial-and-automation-applications/880347/</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Need oil pressing machines for edible oil production. Type: Hydraulic / Screw press Capacity: 5–100 ton/day Material: Stainless steel / Cast iron Power: Electric / Diesel</t>
+          <t>I want motor controllers for industrial and EV applications. Type: AC / DC / BLDC Voltage: 12–480V Current: 5–200A Features: Overload, short-circuit protection Certification: CE / UL</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Buying SS Clinch Nuts With High Strength And Quality Standards</t>
+          <t>Need Oil Pressers For Food And Industrial Applications</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-ss-clinch-nuts-with-high-strength-and/880345/</t>
+          <t>https://www.tradewheel.com/buyers/need-oil-pressers-for-food-and-industrial-applications/880346/</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Looking for stainless steel clinch nuts for industrial applications. Material: SS304 / SS316 Size: M3–M12 Finish: Polished / Plain Application: Sheet metal assembly</t>
+          <t>Need oil pressing machines for edible oil production. Type: Hydraulic / Screw press Capacity: 5–100 ton/day Material: Stainless steel / Cast iron Power: Electric / Diesel</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Need Curtains For Interior And Home Furnishing Market</t>
+          <t>Buying SS Clinch Nuts With High Strength And Quality Standards</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-curtains-for-interior-and-home-furnishing-market/880344/</t>
+          <t>https://www.tradewheel.com/buyers/buying-ss-clinch-nuts-with-high-strength-and/880345/</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Interested in bulk curtains for commercial and retail use. Material: Cotton, polyester, velvet Sizes: Standard &amp; custom Style: Sheer, blackout, patterned Packaging: Export cartons</t>
+          <t>Looking for stainless steel clinch nuts for industrial applications. Material: SS304 / SS316 Size: M3–M12 Finish: Polished / Plain Application: Sheet metal assembly</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Need Candles For Home And Decorative Use</t>
+          <t>Need Curtains For Interior And Home Furnishing Market</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-candles-for-home-and-decorative-use/880342/</t>
+          <t>https://www.tradewheel.com/buyers/need-curtains-for-interior-and-home-furnishing-market/880344/</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>We would like to purchase scented and unscented candles made of soy or paraffin wax, in assorted shapes, with safe wicks and retail-ready packaging. Kindly confirm MOQ and lead time.</t>
+          <t>Interested in bulk curtains for commercial and retail use. Material: Cotton, polyester, velvet Sizes: Standard &amp; custom Style: Sheer, blackout, patterned Packaging: Export cartons</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -3298,386 +3298,386 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Buying Hair Loss Treatment With Certified Quality And Effectiveness</t>
+          <t>Need Candles For Home And Decorative Use</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-hair-loss-treatment-with-certified-quality-and/880340/</t>
+          <t>https://www.tradewheel.com/buyers/need-candles-for-home-and-decorative-use/880342/</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>We are sourcing hair loss treatment products for wholesale supply. Form: Serum, shampoo, lotion Ingredients: Minoxidil, natural extracts Packaging: 50–200ml bottles</t>
+          <t>We would like to purchase scented and unscented candles made of soy or paraffin wax, in assorted shapes, with safe wicks and retail-ready packaging. Kindly confirm MOQ and lead time.</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Buying Used Shoes With Good Condition And Variety</t>
+          <t>Buying Hair Loss Treatment With Certified Quality And Effectiveness</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-used-shoes-with-good-condition-and-variety/880337/</t>
+          <t>https://www.tradewheel.com/buyers/buying-hair-loss-treatment-with-certified-quality-and/880340/</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Hi, I want to explore suppliers of used shoes for retail distribution. Please share packaging methods and minimum order quantities.</t>
+          <t>We are sourcing hair loss treatment products for wholesale supply. Form: Serum, shampoo, lotion Ingredients: Minoxidil, natural extracts Packaging: 50–200ml bottles</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Buying Solar Controllers With Reliable And Efficient Performance</t>
+          <t>Buying Used Shoes With Good Condition And Variety</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-solar-controllers-with-reliable-and-efficient-performance/880335/</t>
+          <t>https://www.tradewheel.com/buyers/buying-used-shoes-with-good-condition-and-variety/880337/</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>I am sourcing solar charge controllers for projects. Type: PWM / MPPT Voltage: 12V / 24V / 48V Capacity: 10A–100A Application: Solar systems</t>
+          <t>Hi, I want to explore suppliers of used shoes for retail distribution. Please share packaging methods and minimum order quantities.</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Need Plates For Household And Hospitality Supply</t>
+          <t>Buying Solar Controllers With Reliable And Efficient Performance</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-plates-for-household-and-hospitality-supply/880334/</t>
+          <t>https://www.tradewheel.com/buyers/buying-solar-controllers-with-reliable-and-efficient-performance/880335/</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>I am purchasing plates for kitchenware supply. Material: Ceramic / Glass / Melamine / Steel Diameter: 6–12 inches Shape: Round / Square Packaging: Boxed sets</t>
+          <t>I am sourcing solar charge controllers for projects. Type: PWM / MPPT Voltage: 12V / 24V / 48V Capacity: 10A–100A Application: Solar systems</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Buying Ox Stone With Assured Strength And Quality</t>
+          <t>Need Plates For Household And Hospitality Supply</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-ox-stone-with-assured-strength-and-quality/880333/</t>
+          <t>https://www.tradewheel.com/buyers/need-plates-for-household-and-hospitality-supply/880334/</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Hi dear sellers. We need ox stones in bulk. Please confirm available grades and pricing.</t>
+          <t>I am purchasing plates for kitchenware supply. Material: Ceramic / Glass / Melamine / Steel Diameter: 6–12 inches Shape: Round / Square Packaging: Boxed sets</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Buying Used Clothes With Good Wearable Condition</t>
+          <t>Buying Ox Stone With Assured Strength And Quality</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-used-clothes-with-good-wearable-condition/880332/</t>
+          <t>https://www.tradewheel.com/buyers/buying-ox-stone-with-assured-strength-and-quality/880333/</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>I am searching for sellers of used clothes for resale. Grade: A/B/C Type: Mixed (Men/Women/Children) Packaging: 45–100 kg bales</t>
+          <t>Hi dear sellers. We need ox stones in bulk. Please confirm available grades and pricing.</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Need Knitted Fabric For Apparel And Garment Production</t>
+          <t>Buying Used Clothes With Good Wearable Condition</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-knitted-fabric-for-apparel-and-garment-production/880331/</t>
+          <t>https://www.tradewheel.com/buyers/buying-used-clothes-with-good-wearable-condition/880332/</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>I am sourcing knitted fabric for garment making. Material: Cotton / Polyester / Blends Width: 40–80 inches GSM: 120–300 Use: Apparel / Sportswear</t>
+          <t>I am searching for sellers of used clothes for resale. Grade: A/B/C Type: Mixed (Men/Women/Children) Packaging: 45–100 kg bales</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Buying Cleaning Brushes With Durable And Effective Quality</t>
+          <t>Need Knitted Fabric For Apparel And Garment Production</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-cleaning-brushes-with-durable-and-effective-quality/880330/</t>
+          <t>https://www.tradewheel.com/buyers/need-knitted-fabric-for-apparel-and-garment-production/880331/</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>I want to source cleaning brushes for household supply. Material: Plastic / Wooden / Steel wire Size: Small–Large Handle: With / Without Usage: Kitchen, floor, industrial</t>
+          <t>I am sourcing knitted fabric for garment making. Material: Cotton / Polyester / Blends Width: 40–80 inches GSM: 120–300 Use: Apparel / Sportswear</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Need Polyester Yarn For Textile And Fabric Manufacturing</t>
+          <t>Buying Cleaning Brushes With Durable And Effective Quality</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-polyester-yarn-for-textile-and-fabric-manufacturing/880329/</t>
+          <t>https://www.tradewheel.com/buyers/buying-cleaning-brushes-with-durable-and-effective-quality/880330/</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>We would like to purchase 100% polyester yarn, 30s–60s count, in raw white and dyed options. Kindly confirm packaging and bulk supply terms.</t>
+          <t>I want to source cleaning brushes for household supply. Material: Plastic / Wooden / Steel wire Size: Small–Large Handle: With / Without Usage: Kitchen, floor, industrial</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Need Cement For Construction And Building Projects</t>
+          <t>Need Polyester Yarn For Textile And Fabric Manufacturing</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-cement-for-construction-and-building-projects/880327/</t>
+          <t>https://www.tradewheel.com/buyers/need-polyester-yarn-for-textile-and-fabric-manufacturing/880329/</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Hi, We are sourcing cement for bulk construction supply. Consistency and strength are important. Thank you.</t>
+          <t>We would like to purchase 100% polyester yarn, 30s–60s count, in raw white and dyed options. Kindly confirm packaging and bulk supply terms.</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Need Motorcycle Body Kits For Automotive Market</t>
+          <t>Need Cement For Construction And Building Projects</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-motorcycle-body-kits-for-automotive-market/880326/</t>
+          <t>https://www.tradewheel.com/buyers/need-cement-for-construction-and-building-projects/880327/</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>We would like to order motorcycle body kits in ABS and fiberglass, with durable paint finish and OEM fitment. Kindly confirm model range and delivery schedule.</t>
+          <t>Hi, We are sourcing cement for bulk construction supply. Consistency and strength are important. Thank you.</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Buying Force Sensors &amp; Load Cells With Accurate Performance</t>
+          <t>Need Motorcycle Body Kits For Automotive Market</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-force-sensors-load-cells-with-accurate/880325/</t>
+          <t>https://www.tradewheel.com/buyers/need-motorcycle-body-kits-for-automotive-market/880326/</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>I am sourcing load cells and sensors for industrial supply. Capacity: 1kg–50t Accuracy: ±0.03% Output: mV/V, digital Application: Weighing, automation</t>
+          <t>We would like to order motorcycle body kits in ABS and fiberglass, with durable paint finish and OEM fitment. Kindly confirm model range and delivery schedule.</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3687,29 +3687,29 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Importing Energy Drinks For Beverage Industry from Global suppliers</t>
+          <t>Buying Force Sensors &amp; Load Cells With Accurate Performance</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/importing-energy-drinks-for-beverage-industry-from-global/880324/</t>
+          <t>https://www.tradewheel.com/buyers/buying-force-sensors-load-cells-with-accurate/880325/</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>I want to buy energy drinks for distribution. Volume: 250ml / 500ml Flavor: Regular / Sugar-free Shelf Life: 12–18 months</t>
+          <t>I am sourcing load cells and sensors for industrial supply. Capacity: 1kg–50t Accuracy: ±0.03% Output: mV/V, digital Application: Weighing, automation</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3719,29 +3719,29 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Procuring Energy Drink In Bulk Quantities For Supply</t>
+          <t>Importing Energy Drinks For Beverage Industry from Global suppliers</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/procuring-energy-drink-in-bulk-quantities-for-supply/880323/</t>
+          <t>https://www.tradewheel.com/buyers/importing-energy-drinks-for-beverage-industry-from-global/880324/</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>We would like to order energy drinks in 250ml and 500ml cans, sugar-free and regular options, with long shelf life. Kindly confirm MOQ and private labeling options.</t>
+          <t>I want to buy energy drinks for distribution. Volume: 250ml / 500ml Flavor: Regular / Sugar-free Shelf Life: 12–18 months</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3751,29 +3751,29 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Buying 100% Jute Fabric With Eco-Friendly Quality</t>
+          <t>Procuring Energy Drink In Bulk Quantities For Supply</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-100-jute-fabric-with-eco-friendly-quality/880322/</t>
+          <t>https://www.tradewheel.com/buyers/procuring-energy-drink-in-bulk-quantities-for-supply/880323/</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>I am sourcing 100% jute fabric for bulk use. Material: Pure jute Width: 40–60 inches GSM: 200–500 Application: Bags, upholstery, crafts</t>
+          <t>We would like to order energy drinks in 250ml and 500ml cans, sugar-free and regular options, with long shelf life. Kindly confirm MOQ and private labeling options.</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3783,29 +3783,29 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Procuring Bottles In Bulk Quantities For Trade</t>
+          <t>Buying 100% Jute Fabric With Eco-Friendly Quality</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/procuring-bottles-in-bulk-quantities-for-trade/880321/</t>
+          <t>https://www.tradewheel.com/buyers/buying-100-jute-fabric-with-eco-friendly-quality/880322/</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>We need bulk supply of bottles for beverage packaging, preferably in glass and PET options. Share sizes and closure types available.</t>
+          <t>I am sourcing 100% jute fabric for bulk use. Material: Pure jute Width: 40–60 inches GSM: 200–500 Application: Bags, upholstery, crafts</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3815,29 +3815,29 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Need Cassava Chips For Snack And Food Distribution</t>
+          <t>Procuring Bottles In Bulk Quantities For Trade</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-cassava-chips-for-snack-and-food-distribution/880313/</t>
+          <t>https://www.tradewheel.com/buyers/procuring-bottles-in-bulk-quantities-for-trade/880321/</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Dear Supplier, We would like to order cassava chips in plain and flavored varieties, export-quality packaging, and long shelf life. Kindly confirm MOQ and logistics.</t>
+          <t>We need bulk supply of bottles for beverage packaging, preferably in glass and PET options. Share sizes and closure types available.</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3847,29 +3847,29 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Seeking Bikinis And Beachwear For Swimwear And Fashion Supply</t>
+          <t>Need Cassava Chips For Snack And Food Distribution</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-bikinis-and-beachwear-for-swimwear-and-fashion/880312/</t>
+          <t>https://www.tradewheel.com/buyers/need-cassava-chips-for-snack-and-food-distribution/880313/</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>I am buying bikinis and beachwear for retail supply. Material: Nylon / Polyester / Spandex Sizes: XS–XXL Style: 1-piece / 2-piece / Cover-ups</t>
+          <t>Dear Supplier, We would like to order cassava chips in plain and flavored varieties, export-quality packaging, and long shelf life. Kindly confirm MOQ and logistics.</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3879,29 +3879,29 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Need Barley For Food And Brewing Industry</t>
+          <t>Seeking Bikinis And Beachwear For Swimwear And Fashion Supply</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-barley-for-food-and-brewing-industry/880311/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-bikinis-and-beachwear-for-swimwear-and-fashion/880312/</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>I am sourcing high-quality barley for food and feed. Type: Malting / Feed Moisture:</t>
+          <t>I am buying bikinis and beachwear for retail supply. Material: Nylon / Polyester / Spandex Sizes: XS–XXL Style: 1-piece / 2-piece / Cover-ups</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3911,29 +3911,29 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Need Object Detection System For Industrial And Security Use</t>
+          <t>Need Barley For Food And Brewing Industry</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-object-detection-system-for-industrial-and-security/880310/</t>
+          <t>https://www.tradewheel.com/buyers/need-barley-for-food-and-brewing-industry/880311/</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>I want to buy AI-based object detection systems. Technology: AI / Machine Vision Accuracy: 90%+ Application: Industrial / Security Integration: Customizable</t>
+          <t>I am sourcing high-quality barley for food and feed. Type: Malting / Feed Moisture:</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3943,29 +3943,29 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Buying Gas Generation Equipment With High Performance Standards</t>
+          <t>Need Object Detection System For Industrial And Security Use</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-gas-generation-equipment-with-high-performance-standards/880309/</t>
+          <t>https://www.tradewheel.com/buyers/need-object-detection-system-for-industrial-and-security/880310/</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>I am sourcing gas generation equipment for industrial use. Gas Type: O₂ / N₂ / H₂ Capacity: 10–500 Nm³/hr Power: Electric / Diesel Certification: ISO / CE</t>
+          <t>I want to buy AI-based object detection systems. Technology: AI / Machine Vision Accuracy: 90%+ Application: Industrial / Security Integration: Customizable</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3975,29 +3975,29 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Procuring Fireworks In Bulk Quantities For Retail And Distribution</t>
+          <t>Buying Gas Generation Equipment With High Performance Standards</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/procuring-fireworks-in-bulk-quantities-for-retail-and/880308/</t>
+          <t>https://www.tradewheel.com/buyers/buying-gas-generation-equipment-with-high-performance-standards/880309/</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>I am purchasing assorted fireworks for wholesale. Type: Sparklers, Rockets, Cakes Safety: CE certified Packaging: Mixed cartons MOQ: Negotiable</t>
+          <t>I am sourcing gas generation equipment for industrial use. Gas Type: O₂ / N₂ / H₂ Capacity: 10–500 Nm³/hr Power: Electric / Diesel Certification: ISO / CE</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4007,29 +4007,29 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Procuring Copper Scrap In Bulk Quantities For Manufacturing Supply</t>
+          <t>Procuring Fireworks In Bulk Quantities For Retail And Distribution</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/procuring-copper-scrap-in-bulk-quantities-for-manufacturing/880307/</t>
+          <t>https://www.tradewheel.com/buyers/procuring-fireworks-in-bulk-quantities-for-retail-and/880308/</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>I want copper scrap for recycling and industrial use. Type: Millberry / Wire / Sheet Purity: 99% min Packaging: Bundles / Bales</t>
+          <t>I am purchasing assorted fireworks for wholesale. Type: Sparklers, Rockets, Cakes Safety: CE certified Packaging: Mixed cartons MOQ: Negotiable</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4039,29 +4039,29 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Need Energy Drinks For Retail And Distribution Market</t>
+          <t>Procuring Copper Scrap In Bulk Quantities For Manufacturing Supply</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-energy-drinks-for-retail-and-distribution-market/880306/</t>
+          <t>https://www.tradewheel.com/buyers/procuring-copper-scrap-in-bulk-quantities-for-manufacturing/880307/</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Dear Team, We would like to order canned energy drinks with standard sizes (250ml/500ml), long shelf life, and export-ready packaging. Kindly confirm MOQ and shipping terms.</t>
+          <t>I want copper scrap for recycling and industrial use. Type: Millberry / Wire / Sheet Purity: 99% min Packaging: Bundles / Bales</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4071,29 +4071,29 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Buying Gold Fingers With High Purity And Assured Quality</t>
+          <t>Need Energy Drinks For Retail And Distribution Market</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-gold-fingers-with-high-purity-and-assured/880305/</t>
+          <t>https://www.tradewheel.com/buyers/need-energy-drinks-for-retail-and-distribution-market/880306/</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>We would like to purchase trimmed RAM gold fingers for gold recovery, clean and contamination-free. Kindly confirm supply capacity and payment terms.</t>
+          <t>Dear Team, We would like to order canned energy drinks with standard sizes (250ml/500ml), long shelf life, and export-ready packaging. Kindly confirm MOQ and shipping terms.</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4103,29 +4103,29 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Need Moulds For Industrial And Manufacturing Applications</t>
+          <t>Buying Gold Fingers With High Purity And Assured Quality</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-moulds-for-industrial-and-manufacturing-applications/880304/</t>
+          <t>https://www.tradewheel.com/buyers/buying-gold-fingers-with-high-purity-and-assured/880305/</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Dear Team, We would like to purchase injection moulds and casting moulds with precise finishing, long life, and custom options. Kindly confirm MOQ and delivery terms</t>
+          <t>We would like to purchase trimmed RAM gold fingers for gold recovery, clean and contamination-free. Kindly confirm supply capacity and payment terms.</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4135,29 +4135,29 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Need Roe For Seafood And Export Market</t>
+          <t>Need Moulds For Industrial And Manufacturing Applications</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-roe-for-seafood-and-export-market/880303/</t>
+          <t>https://www.tradewheel.com/buyers/need-moulds-for-industrial-and-manufacturing-applications/880304/</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>I want to source premium fish roe for export. Type: Salmon / Cod / Lumpfish Grade: A Quality Storage: Frozen Packaging: 1–5 kg</t>
+          <t>Dear Team, We would like to purchase injection moulds and casting moulds with precise finishing, long life, and custom options. Kindly confirm MOQ and delivery terms</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4167,29 +4167,29 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Need Leather Wallet For Fashion And Accessories Market</t>
+          <t>Need Roe For Seafood And Export Market</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-leather-wallet-for-fashion-and-accessories-market/880302/</t>
+          <t>https://www.tradewheel.com/buyers/need-roe-for-seafood-and-export-market/880303/</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>I am purchasing leather wallets for retail distribution. Material: 100% Genuine Leather Style: Bi-fold / Tri-fold / Zip Size: Standard / Slim</t>
+          <t>I want to source premium fish roe for export. Type: Salmon / Cod / Lumpfish Grade: A Quality Storage: Frozen Packaging: 1–5 kg</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4199,29 +4199,29 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Need Processors For IT And Computer Market</t>
+          <t>Need Leather Wallet For Fashion And Accessories Market</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-processors-for-it-and-computer-market/880301/</t>
+          <t>https://www.tradewheel.com/buyers/need-leather-wallet-for-fashion-and-accessories-market/880302/</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>I need branded processors for electronics supply. Type: Intel / AMD Generation: Latest models Speed: 2.5 GHz+ Packaging: Boxed or OEM</t>
+          <t>I am purchasing leather wallets for retail distribution. Material: 100% Genuine Leather Style: Bi-fold / Tri-fold / Zip Size: Standard / Slim</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4231,29 +4231,29 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Need Fresh Tomato For Food And Retail Supply</t>
+          <t>Need Processors For IT And Computer Market</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-fresh-tomato-for-food-and-retail-supply/880300/</t>
+          <t>https://www.tradewheel.com/buyers/need-processors-for-it-and-computer-market/880301/</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>I am sourcing farm-fresh tomatoes for wholesale. Type: Round / Roma / Cherry Size: 5–8 cm Origin: Farm grown Packaging: 10–25 kg crates</t>
+          <t>I need branded processors for electronics supply. Type: Intel / AMD Generation: Latest models Speed: 2.5 GHz+ Packaging: Boxed or OEM</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4263,22 +4263,22 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Buying Sea Cucumber With High Quality And Fresh Standards</t>
+          <t>Need Fresh Tomato For Food And Retail Supply</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-sea-cucumber-with-high-quality-and-fresh/880299/</t>
+          <t>https://www.tradewheel.com/buyers/need-fresh-tomato-for-food-and-retail-supply/880300/</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>I want to buy dried sea cucumbers for bulk supply. Grade: A / B Size: 5–15 cm Processing: Dried / Frozen Packaging: 10–20 kg</t>
+          <t>I am sourcing farm-fresh tomatoes for wholesale. Type: Round / Roma / Cherry Size: 5–8 cm Origin: Farm grown Packaging: 10–25 kg crates</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -4295,509 +4295,509 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Seeking Sanitary Napkin For Healthcare And Women’s Hygiene Market</t>
+          <t>Buying Sea Cucumber With High Quality And Fresh Standards</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-sanitary-napkin-for-healthcare-and-womens-hygiene/880295/</t>
+          <t>https://www.tradewheel.com/buyers/buying-sea-cucumber-with-high-quality-and-fresh/880299/</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>We are sourcing bulk sanitary napkins for wholesale supply. Layers: 6–8 layers absorbent core Sizes: Day &amp; night use (240mm–320mm) Features: Super absorbent, soft cotton top, wings Packaging: 8–10 pcs per pack Certification: ISO / FDA</t>
+          <t>I want to buy dried sea cucumbers for bulk supply. Grade: A / B Size: 5–15 cm Processing: Dried / Frozen Packaging: 10–20 kg</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Need Steel Structure For Construction And Industrial Projects</t>
+          <t>Seeking Sanitary Napkin For Healthcare And Women’s Hygiene Market</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-steel-structure-for-construction-and-industrial-projects/880294/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-sanitary-napkin-for-healthcare-and-womens-hygiene/880295/</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>We are sourcing steel structures for construction sites. Can you share load-bearing specifications and if prefabrication services are offered?</t>
+          <t>We are sourcing bulk sanitary napkins for wholesale supply. Layers: 6–8 layers absorbent core Sizes: Day &amp; night use (240mm–320mm) Features: Super absorbent, soft cotton top, wings Packaging: 8–10 pcs per pack Certification: ISO / FDA</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Seeking Bulldozer For Construction And Mining Industry</t>
+          <t>Need Steel Structure For Construction And Industrial Projects</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-bulldozer-for-construction-and-mining-industry/880293/</t>
+          <t>https://www.tradewheel.com/buyers/need-steel-structure-for-construction-and-industrial-projects/880294/</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>We’re reviewing bulldozer suppliers for heavy-duty projects. What engine power ratings are available and do you supply after-sales service?</t>
+          <t>We are sourcing steel structures for construction sites. Can you share load-bearing specifications and if prefabrication services are offered?</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Need Fancy Costumes For Events And Entertainment Use</t>
+          <t>Seeking Bulldozer For Construction And Mining Industry</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-fancy-costumes-for-events-and-entertainment-use/880292/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-bulldozer-for-construction-and-mining-industry/880293/</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Our business needs fancy costumes for seasonal sales. Can you provide details on fabric quality and whether customization is possible?</t>
+          <t>We’re reviewing bulldozer suppliers for heavy-duty projects. What engine power ratings are available and do you supply after-sales service?</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Need Camping And Hiking Gear For Outdoor And Travel Market</t>
+          <t>Need Fancy Costumes For Events And Entertainment Use</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-camping-and-hiking-gear-for-outdoor-and/880291/</t>
+          <t>https://www.tradewheel.com/buyers/need-fancy-costumes-for-events-and-entertainment-use/880292/</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>We are looking at suppliers of camping and hiking gear. Do you have weatherproof tents and what’s the MOQ per model?</t>
+          <t>Our business needs fancy costumes for seasonal sales. Can you provide details on fabric quality and whether customization is possible?</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Buying Diode Laser Machine With Latest Technology And Warranty</t>
+          <t>Need Camping And Hiking Gear For Outdoor And Travel Market</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-diode-laser-machine-with-latest-technology-and/880290/</t>
+          <t>https://www.tradewheel.com/buyers/need-camping-and-hiking-gear-for-outdoor-and/880291/</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Dear Team, We would like to order 808nm diode laser hair removal machines, with cooling system, touchscreen interface, CE certification, and warranty terms. Kindly confirm supply capacity.</t>
+          <t>We are looking at suppliers of camping and hiking gear. Do you have weatherproof tents and what’s the MOQ per model?</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Need Used Cars For Automobile And Resale Market</t>
+          <t>Buying Diode Laser Machine With Latest Technology And Warranty</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-used-cars-for-automobile-and-resale-market/880289/</t>
+          <t>https://www.tradewheel.com/buyers/buying-diode-laser-machine-with-latest-technology-and/880290/</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>We need used cars in different makes and models. Please confirm availability and price list.</t>
+          <t>Dear Team, We would like to order 808nm diode laser hair removal machines, with cooling system, touchscreen interface, CE certification, and warranty terms. Kindly confirm supply capacity.</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Need Furniture Fittings For Interior And Commercial Use</t>
+          <t>Need Used Cars For Automobile And Resale Market</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-furniture-fittings-for-interior-and-commercial-use/880287/</t>
+          <t>https://www.tradewheel.com/buyers/need-used-cars-for-automobile-and-resale-market/880289/</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>We need furniture fittings in bulk. Please confirm available product range and price details.</t>
+          <t>We need used cars in different makes and models. Please confirm availability and price list.</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Buying Sports Bra And Yoga Pants With Comfortable And Stretchable Material</t>
+          <t>Need Furniture Fittings For Interior And Commercial Use</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-sports-bra-and-yoga-pants-with-comfortable/880286/</t>
+          <t>https://www.tradewheel.com/buyers/need-furniture-fittings-for-interior-and-commercial-use/880287/</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>We require yoga pants and sports bras in assorted colors and sizes. Please confirm designs and bulk pricing.</t>
+          <t>We need furniture fittings in bulk. Please confirm available product range and price details.</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Buying Mirror Acrylic Sheet With High Clarity And Durability</t>
+          <t>Buying Sports Bra And Yoga Pants With Comfortable And Stretchable Material</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-mirror-acrylic-sheet-with-high-clarity-and/880285/</t>
+          <t>https://www.tradewheel.com/buyers/buying-sports-bra-and-yoga-pants-with-comfortable/880286/</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Hello, We are sourcing mirror acrylic sheets for decoration and industrial use. Clarity and durability are key. Thank you.</t>
+          <t>We require yoga pants and sports bras in assorted colors and sizes. Please confirm designs and bulk pricing.</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Buying Retract Drill Bits With High Strength And Durability</t>
+          <t>Buying Mirror Acrylic Sheet With High Clarity And Durability</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-retract-drill-bits-with-high-strength-and/880283/</t>
+          <t>https://www.tradewheel.com/buyers/buying-mirror-acrylic-sheet-with-high-clarity-and/880285/</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>We’re sourcing carbide button bits for drilling applications. What is the average lifespan per bit, and do you customize head shapes?</t>
+          <t>Hello, We are sourcing mirror acrylic sheets for decoration and industrial use. Clarity and durability are key. Thank you.</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Need Marine Transceivers For Communication And Navigation Use</t>
+          <t>Buying Retract Drill Bits With High Strength And Durability</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-marine-transceivers-for-communication-and-navigation-use/880282/</t>
+          <t>https://www.tradewheel.com/buyers/buying-retract-drill-bits-with-high-strength-and/880283/</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Our project requires marine transceivers for offshore communication. Do your models meet international frequency standards and have waterproof certification?</t>
+          <t>We’re sourcing carbide button bits for drilling applications. What is the average lifespan per bit, and do you customize head shapes?</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Importing iPhone 17 Cover For Mobile Accessories Market from Asian countries</t>
+          <t>Need Marine Transceivers For Communication And Navigation Use</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/importing-iphone-17-cover-for-mobile-accessories-market/880281/</t>
+          <t>https://www.tradewheel.com/buyers/need-marine-transceivers-for-communication-and-navigation-use/880282/</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>We require wholesale supply of iPhone 17 protective covers. Material: TPU, silicone, PC, leather Styles: Clear, printed, shockproof, magnetic Colors: Multiple options available Packaging: Retail blister / polybag MOQ: 5,000 pcs</t>
+          <t>Our project requires marine transceivers for offshore communication. Do your models meet international frequency standards and have waterproof certification?</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Seeking Fix Bolts For Mechanical And Engineering Applications</t>
+          <t>Importing iPhone 17 Cover For Mobile Accessories Market from Asian countries</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-fix-bolts-for-mechanical-and-engineering-applications/880280/</t>
+          <t>https://www.tradewheel.com/buyers/importing-iphone-17-cover-for-mobile-accessories-market/880281/</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>We require fix bolts in bulk. Please confirm available sizes, material grade, and pricing.</t>
+          <t>We require wholesale supply of iPhone 17 protective covers. Material: TPU, silicone, PC, leather Styles: Clear, printed, shockproof, magnetic Colors: Multiple options available Packaging: Retail blister / polybag MOQ: 5,000 pcs</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>15 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Keen To Purchase Climbing Rope</t>
+          <t>Seeking Fix Bolts For Mechanical And Engineering Applications</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/keen-to-purchase-climbing-rope/880245/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-fix-bolts-for-mechanical-and-engineering-applications/880280/</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Our company is interested in sourcing climbing ropes with durability and safety compliance. Please share catalogs, bulk prices, and shipment timelines.</t>
+          <t>We require fix bolts in bulk. Please confirm available sizes, material grade, and pricing.</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>15 hours ago</t>
+          <t>16 hours ago</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Willing to Purchase disposable vapes</t>
+          <t>Keen To Purchase Climbing Rope</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/willing-to-purchase-disposable-vapes/880244/</t>
+          <t>https://www.tradewheel.com/buyers/keen-to-purchase-climbing-rope/880245/</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Our company requires high-quality disposable vapes with certification and consistent performance. Please provide MOQ, price quotations, and shipping details.</t>
+          <t>Our company is interested in sourcing climbing ropes with durability and safety compliance. Please share catalogs, bulk prices, and shipment timelines.</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4807,29 +4807,29 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Need Details For reliable doorbells</t>
+          <t>Willing to Purchase disposable vapes</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-details-for-reliable-doorbells/880243/</t>
+          <t>https://www.tradewheel.com/buyers/willing-to-purchase-disposable-vapes/880244/</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Our company requires reliable doorbells for home and commercial use. Kindly share technical details, MOQ, competitive pricing, and shipping terms.</t>
+          <t>Our company requires high-quality disposable vapes with certification and consistent performance. Please provide MOQ, price quotations, and shipping details.</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4839,29 +4839,29 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Need Prices For earrings in various designs</t>
+          <t>Need Details For reliable doorbells</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-prices-for-earrings-in-various-designs/880242/</t>
+          <t>https://www.tradewheel.com/buyers/need-details-for-reliable-doorbells/880243/</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>We are looking to source earrings in various designs and materials for retail. Suppliers should share catalogs, price offers, and delivery schedules.</t>
+          <t>Our company requires reliable doorbells for home and commercial use. Kindly share technical details, MOQ, competitive pricing, and shipping terms.</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4871,29 +4871,29 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Purchasing Request For anti-wrinkle device</t>
+          <t>Need Prices For earrings in various designs</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/purchasing-request-for-anti-wrinkle-device/880241/</t>
+          <t>https://www.tradewheel.com/buyers/need-prices-for-earrings-in-various-designs/880242/</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Our company seeks reliable suppliers of anti-wrinkle beauty devices with proven effectiveness. Kindly provide catalogs, MOQ, wholesale rates, and shipping details.</t>
+          <t>We are looking to source earrings in various designs and materials for retail. Suppliers should share catalogs, price offers, and delivery schedules.</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4903,29 +4903,29 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Inquiring For refined soybean oil</t>
+          <t>Purchasing Request For anti-wrinkle device</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/inquiring-for-refined-soybean-oil/880240/</t>
+          <t>https://www.tradewheel.com/buyers/purchasing-request-for-anti-wrinkle-device/880241/</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>We are interested in purchasing refined soybean oil suitable for food applications. Suppliers should share prices, packaging options, and delivery schedules.</t>
+          <t>Our company seeks reliable suppliers of anti-wrinkle beauty devices with proven effectiveness. Kindly provide catalogs, MOQ, wholesale rates, and shipping details.</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4935,29 +4935,29 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Requirement For standard grade EPS</t>
+          <t>Inquiring For refined soybean oil</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/requirement-for-standard-grade-eps/880239/</t>
+          <t>https://www.tradewheel.com/buyers/inquiring-for-refined-soybean-oil/880240/</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>We are sourcing standard grade EPS for industrial and packaging use. Suppliers are requested to provide product specifications, rates, and delivery timelines.</t>
+          <t>We are interested in purchasing refined soybean oil suitable for food applications. Suppliers should share prices, packaging options, and delivery schedules.</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4967,29 +4967,29 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Want To Purchase premium vape</t>
+          <t>Requirement For standard grade EPS</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-purchase-premium-vape/880238/</t>
+          <t>https://www.tradewheel.com/buyers/requirement-for-standard-grade-eps/880239/</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>We are seeking reliable suppliers of premium vape devices with various puff counts. Kindly share catalogs, wholesale pricing, and delivery schedules.</t>
+          <t>We are sourcing standard grade EPS for industrial and packaging use. Suppliers are requested to provide product specifications, rates, and delivery timelines.</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4999,29 +4999,29 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Want To Import high-quality lip gloss</t>
+          <t>Want To Purchase premium vape</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-import-high-quality-lip-gloss/880234/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-purchase-premium-vape/880238/</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>We are sourcing high-quality lip gloss in various shades and packaging options. Kindly provide product catalogs, prices, and delivery timelines.</t>
+          <t>We are seeking reliable suppliers of premium vape devices with various puff counts. Kindly share catalogs, wholesale pricing, and delivery schedules.</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5031,29 +5031,29 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Prices For modern ceiling fans</t>
+          <t>Want To Import high-quality lip gloss</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/prices-for-modern-ceiling-fans/880233/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-import-high-quality-lip-gloss/880234/</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Our company is looking for modern ceiling fans with stylish designs and strong performance. Suppliers should provide catalogs, competitive rates, and shipping details.</t>
+          <t>We are sourcing high-quality lip gloss in various shades and packaging options. Kindly provide product catalogs, prices, and delivery timelines.</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5063,29 +5063,29 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Interested In pvc powder coating</t>
+          <t>Prices For modern ceiling fans</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-pvc-powder-coating/880232/</t>
+          <t>https://www.tradewheel.com/buyers/prices-for-modern-ceiling-fans/880233/</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Our company requires high-quality PVC powder coating with durability and consistency. Suppliers should share certifications, quotations, and expected lead times.</t>
+          <t>Our company is looking for modern ceiling fans with stylish designs and strong performance. Suppliers should provide catalogs, competitive rates, and shipping details.</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5095,29 +5095,29 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Searching For durable ATVs</t>
+          <t>Interested In pvc powder coating</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-durable-atvs/880231/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-pvc-powder-coating/880232/</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>We are looking to source durable ATVs for outdoor and recreational use. Kindly provide engine sizes, price quotes, and estimated delivery schedules.</t>
+          <t>Our company requires high-quality PVC powder coating with durability and consistency. Suppliers should share certifications, quotations, and expected lead times.</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5127,54 +5127,54 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Looking For plastic &amp; rubber machinery</t>
+          <t>Searching For durable ATVs</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-plastic-rubber-machinery/880230/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-durable-atvs/880231/</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>We are sourcing advanced plastic &amp; rubber machinery for industrial use. Kindly provide technical specifications, pricing, and delivery lead times.</t>
+          <t>We are looking to source durable ATVs for outdoor and recreational use. Kindly provide engine sizes, price quotes, and estimated delivery schedules.</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Seeking For durable sportswear</t>
+          <t>Looking For plastic &amp; rubber machinery</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-for-durable-sportswear/880229/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-plastic-rubber-machinery/880230/</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>We are looking for stylish and durable sportswear in bulk. Kindly provide size ranges, fabric details, prices, and estimated delivery times.</t>
+          <t>We are sourcing advanced plastic &amp; rubber machinery for industrial use. Kindly provide technical specifications, pricing, and delivery lead times.</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -5186,482 +5186,482 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Want To Acquire durable motorcycle helmets</t>
+          <t>Seeking For durable sportswear</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-acquire-durable-motorcycle-helmets/880228/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-for-durable-sportswear/880229/</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Our company seeks suppliers of lightweight and durable motorcycle helmets. Please share catalogs, quotations, and shipment details.</t>
+          <t>We are looking for stylish and durable sportswear in bulk. Kindly provide size ranges, fabric details, prices, and estimated delivery times.</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Keen To Purchase ultrasonic cleaners</t>
+          <t>Want To Acquire durable motorcycle helmets</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/keen-to-purchase-ultrasonic-cleaners/880227/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-acquire-durable-motorcycle-helmets/880228/</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>We are seeking ultrasonic cleaners for industrial and medical applications. Kindly provide capacity details, technical specs, prices, and delivery times.</t>
+          <t>Our company seeks suppliers of lightweight and durable motorcycle helmets. Please share catalogs, quotations, and shipment details.</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Need Details For Inkjet Printers</t>
+          <t>Keen To Purchase ultrasonic cleaners</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-details-for-inkjet-printers/880226/</t>
+          <t>https://www.tradewheel.com/buyers/keen-to-purchase-ultrasonic-cleaners/880227/</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Our company requires reliable and cost-efficient inkjet printers in bulk. Suppliers are invited to share catalogs, warranty info, quotations, and shipping terms.</t>
+          <t>We are seeking ultrasonic cleaners for industrial and medical applications. Kindly provide capacity details, technical specs, prices, and delivery times.</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Need Prices For Water Filter Parts</t>
+          <t>Need Details For Inkjet Printers</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-prices-for-water-filter-parts/880225/</t>
+          <t>https://www.tradewheel.com/buyers/need-details-for-inkjet-printers/880226/</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>We are sourcing replacement parts for water filters in bulk. Kindly provide product catalogs, compatibility details, price offers, and delivery times.</t>
+          <t>Our company requires reliable and cost-efficient inkjet printers in bulk. Suppliers are invited to share catalogs, warranty info, quotations, and shipping terms.</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Purchasing Request For Power Adapters</t>
+          <t>Need Prices For Water Filter Parts</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/purchasing-request-for-power-adapters/880223/</t>
+          <t>https://www.tradewheel.com/buyers/need-prices-for-water-filter-parts/880225/</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Our company requires durable and efficient power adapters in large quantities. Please share product specifications, MOQ, quotations, and shipping details.</t>
+          <t>We are sourcing replacement parts for water filters in bulk. Kindly provide product catalogs, compatibility details, price offers, and delivery times.</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Inquiring For Barista coffee robots</t>
+          <t>Purchasing Request For Power Adapters</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/inquiring-for-barista-coffee-robots/880222/</t>
+          <t>https://www.tradewheel.com/buyers/purchasing-request-for-power-adapters/880223/</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>We are sourcing barista coffee robots for cafes and events. Kindly provide models, technical specs, price offers, and delivery timelines.</t>
+          <t>Our company requires durable and efficient power adapters in large quantities. Please share product specifications, MOQ, quotations, and shipping details.</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Want To Purchase hair extensions</t>
+          <t>Inquiring For Barista coffee robots</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-purchase-hair-extensions/880221/</t>
+          <t>https://www.tradewheel.com/buyers/inquiring-for-barista-coffee-robots/880222/</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>We are interested in natural and synthetic hair extensions in bulk. Kindly provide length options, quality certifications, pricing, and shipment details.</t>
+          <t>We are sourcing barista coffee robots for cafes and events. Kindly provide models, technical specs, price offers, and delivery timelines.</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Quotation For High Quality Leather bags</t>
+          <t>Want To Purchase hair extensions</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/quotation-for-high-quality-leather-bags/880220/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-purchase-hair-extensions/880221/</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Our company seeks bulk suppliers of fashionable leather bags. Please share MOQ, customization options, competitive rates, and lead times.</t>
+          <t>We are interested in natural and synthetic hair extensions in bulk. Kindly provide length options, quality certifications, pricing, and shipment details.</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Want To Import authentic Botox</t>
+          <t>Quotation For High Quality Leather bags</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-import-authentic-botox/880219/</t>
+          <t>https://www.tradewheel.com/buyers/quotation-for-high-quality-leather-bags/880220/</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Greetings, We are looking to source authentic Botox products for medical and cosmetic use. Kindly provide certifications, packaging details, prices, and delivery terms.</t>
+          <t>Our company seeks bulk suppliers of fashionable leather bags. Please share MOQ, customization options, competitive rates, and lead times.</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Quotation For Milk Powder</t>
+          <t>Want To Import authentic Botox</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/quotation-for-milk-powder/880218/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-import-authentic-botox/880219/</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Greetings, Our company seeks suppliers of milk powder in retail and industrial packaging. Please share quotations, product details, and estimated lead times.</t>
+          <t>Greetings, We are looking to source authentic Botox products for medical and cosmetic use. Kindly provide certifications, packaging details, prices, and delivery terms.</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Willing to Procure PK Belt</t>
+          <t>Quotation For Milk Powder</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/willing-to-procure-pk-belt/880217/</t>
+          <t>https://www.tradewheel.com/buyers/quotation-for-milk-powder/880218/</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Hello, We are seeking PK belts for industrial and automotive applications. Please provide specifications, MOQ, price offers, and estimated delivery schedules.</t>
+          <t>Greetings, Our company seeks suppliers of milk powder in retail and industrial packaging. Please share quotations, product details, and estimated lead times.</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Interested In Mobile Phone Cases</t>
+          <t>Willing to Procure PK Belt</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-mobile-phone-cases/880215/</t>
+          <t>https://www.tradewheel.com/buyers/willing-to-procure-pk-belt/880217/</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Our company requires protective and trendy phone cases in bulk. Suppliers should provide catalogs, customization options, competitive rates, and shipping terms.</t>
+          <t>Hello, We are seeking PK belts for industrial and automotive applications. Please provide specifications, MOQ, price offers, and estimated delivery schedules.</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Searching For microwaves Ovens</t>
+          <t>Interested In Mobile Phone Cases</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-microwaves-ovens/880214/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-mobile-phone-cases/880215/</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>We are looking for energy-efficient microwaves for retail distribution. Kindly provide models, technical specs, pricing, and delivery lead times.</t>
+          <t>Our company requires protective and trendy phone cases in bulk. Suppliers should provide catalogs, customization options, competitive rates, and shipping terms.</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Willing to buy AB Beans</t>
+          <t>Searching For microwaves Ovens</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/willing-to-buy-ab-beans/880212/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-microwaves-ovens/880214/</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Our company is interested in importing AB beans in bulk. Reliable suppliers should share quality certifications, packaging options, quotations, and shipment schedules.</t>
+          <t>We are looking for energy-efficient microwaves for retail distribution. Kindly provide models, technical specs, pricing, and delivery lead times.</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Looking For bulk quantities of refined soybean oil</t>
+          <t>Willing to buy AB Beans</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-bulk-quantities-of-refined-soybean-oil/880211/</t>
+          <t>https://www.tradewheel.com/buyers/willing-to-buy-ab-beans/880212/</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>We are seeking bulk quantities of refined soybean oil for food processing and retail. Kindly share specifications, packaging options, price quotes, and delivery schedules.</t>
+          <t>Our company is interested in importing AB beans in bulk. Reliable suppliers should share quality certifications, packaging options, quotations, and shipment schedules.</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5671,29 +5671,29 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>In Search For Gift Bags</t>
+          <t>Looking For bulk quantities of refined soybean oil</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-search-for-gift-bags/880210/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-bulk-quantities-of-refined-soybean-oil/880211/</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Good day, We are interested in buying gift bags. Please provide us with details on available sizes and color options. Kind Regards.</t>
+          <t>We are seeking bulk quantities of refined soybean oil for food processing and retail. Kindly share specifications, packaging options, price quotes, and delivery schedules.</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5703,29 +5703,29 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Immediate purchase of polyester yarn</t>
+          <t>In Search For Gift Bags</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/immediate-purchase-of-polyester-yarn/880207/</t>
+          <t>https://www.tradewheel.com/buyers/in-search-for-gift-bags/880210/</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Hello, I am looking to purchase polyester yarn. Please provide me with available certifications along with pricing. Kind Regards.</t>
+          <t>Good day, We are interested in buying gift bags. Please provide us with details on available sizes and color options. Kind Regards.</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5735,29 +5735,29 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>In search for leggings</t>
+          <t>Immediate purchase of polyester yarn</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-search-for-leggings/880206/</t>
+          <t>https://www.tradewheel.com/buyers/immediate-purchase-of-polyester-yarn/880207/</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Hello, We are looking to purchase leggings. Please share details on materials used, sizes and color options.</t>
+          <t>Hello, I am looking to purchase polyester yarn. Please provide me with available certifications along with pricing. Kind Regards.</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5767,29 +5767,29 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>In Search Of Hardware</t>
+          <t>In search for leggings</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-search-of-hardware/880205/</t>
+          <t>https://www.tradewheel.com/buyers/in-search-for-leggings/880206/</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Hello, W are looking to purchase hardware items such as door hinges, drawer slides and fasteners.. Please provide us with MOQ along with pricing.</t>
+          <t>Hello, We are looking to purchase leggings. Please share details on materials used, sizes and color options.</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5799,29 +5799,29 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Seeking high quality speakers</t>
+          <t>In Search Of Hardware</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-high-quality-speakers/880203/</t>
+          <t>https://www.tradewheel.com/buyers/in-search-of-hardware/880205/</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Hi there, I am looking to purchase high quality speakers. Please provide me with product specifications along with pricing.</t>
+          <t>Hello, W are looking to purchase hardware items such as door hinges, drawer slides and fasteners.. Please provide us with MOQ along with pricing.</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5831,29 +5831,29 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Planning To Buy Sewing Machines</t>
+          <t>Seeking high quality speakers</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-buy-sewing-machines/880202/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-high-quality-speakers/880203/</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Dear Sir, I am interested in buying sewing machines. Could you provide me with availability along with pricing? Kind Regards.</t>
+          <t>Hi there, I am looking to purchase high quality speakers. Please provide me with product specifications along with pricing.</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5863,29 +5863,29 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>In Search For Home Decor</t>
+          <t>Planning To Buy Sewing Machines</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-search-for-home-decor/880200/</t>
+          <t>https://www.tradewheel.com/buyers/planning-to-buy-sewing-machines/880202/</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Hello, We would like to purchase home decor items. Please provide us with product details along with pricing. Thank you.</t>
+          <t>Dear Sir, I am interested in buying sewing machines. Could you provide me with availability along with pricing? Kind Regards.</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5895,22 +5895,22 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>In search for women's underwear</t>
+          <t>In Search For Home Decor</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-search-for-womens-underwear/880199/</t>
+          <t>https://www.tradewheel.com/buyers/in-search-for-home-decor/880200/</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Hello, We are looking to purchase women's underwear. Kindly provide us with minimum order quantity along with pricing.</t>
+          <t>Hello, We would like to purchase home decor items. Please provide us with product details along with pricing. Thank you.</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -5927,61 +5927,61 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Need Set Top Box</t>
+          <t>In search for women's underwear</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-set-top-box/880198/</t>
+          <t>https://www.tradewheel.com/buyers/in-search-for-womens-underwear/880199/</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Hello, We are looking to purchase set top box. Please provide us with your products list along with pricing.</t>
+          <t>Hello, We are looking to purchase women's underwear. Kindly provide us with minimum order quantity along with pricing.</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Need Coffee Beans For Beverage And Food Market</t>
+          <t>Need Set Top Box</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-coffee-beans-for-beverage-and-food-market/880288/</t>
+          <t>https://www.tradewheel.com/buyers/need-set-top-box/880198/</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Dear Supplier, We would like to purchase Arabica and Robusta coffee beans, washed and natural processed, moisture</t>
+          <t>Hello, We are looking to purchase set top box. Please provide us with your products list along with pricing.</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5991,61 +5991,61 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Buying Pallet Trucks for resale</t>
+          <t>Need Coffee Beans For Beverage And Food Market</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-pallet-trucks-for-resale/880400/</t>
+          <t>https://www.tradewheel.com/buyers/need-coffee-beans-for-beverage-and-food-market/880288/</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Hello dear, We are intending to purchase Pallet Trucks for wholesale. Could you please send us the best price list and proper details.</t>
+          <t>Dear Supplier, We would like to purchase Arabica and Robusta coffee beans, washed and natural processed, moisture</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Looking for red mercury</t>
+          <t>Buying Pallet Trucks for resale</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-red-mercury/880268/</t>
+          <t>https://www.tradewheel.com/buyers/buying-pallet-trucks-for-resale/880400/</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>I am looking for red mercury</t>
+          <t>Hello dear, We are intending to purchase Pallet Trucks for wholesale. Could you please send us the best price list and proper details.</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -6055,29 +6055,29 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Interested in Kitchen Ceiling Led Pendant Modern led light Rail Track Fixtures</t>
+          <t>Looking for red mercury</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-kitchen-ceiling-led-pendant-modern-led/880271/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-red-mercury/880268/</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>I am interested in your LED track lights and would like to know more about your product range. Could you please share your latest catalogue and price list, including details on MOQ, available wattages, input voltage (AC220V preferred), and certificat...</t>
+          <t>I am looking for red mercury</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -6087,29 +6087,29 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Interested to import Baby soap</t>
+          <t>Interested in Kitchen Ceiling Led Pendant Modern led light Rail Track Fixtures</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-to-import-baby-soap/880272/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-kitchen-ceiling-led-pendant-modern-led/880271/</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>My name is María Terrazas, I am very interested in importing your products and would like to explore a potential cooperation with your company. In order to evaluate the feasibility of importing your products to Bolivia, I kindly ask you to provide...</t>
+          <t>I am interested in your LED track lights and would like to know more about your product range. Could you please share your latest catalogue and price list, including details on MOQ, available wattages, input voltage (AC220V preferred), and certificat...</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -6119,22 +6119,22 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>interested in buying bldg motor for e rickshaw</t>
+          <t>Interested to import Baby soap</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-buying-bldg-motor-for-e-rickshaw/880273/</t>
+          <t>https://www.tradewheel.com/buyers/interested-to-import-baby-soap/880272/</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>hi ... Sam interested in buying bldg motor for e rikshaw</t>
+          <t>My name is María Terrazas, I am very interested in importing your products and would like to explore a potential cooperation with your company. In order to evaluate the feasibility of importing your products to Bolivia, I kindly ask you to provide...</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -6166,7 +6166,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -6198,7 +6198,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -6230,7 +6230,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -6262,7 +6262,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -6358,7 +6358,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -6390,7 +6390,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -6422,7 +6422,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -6454,7 +6454,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -6518,7 +6518,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -6550,7 +6550,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -6582,7 +6582,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -6614,7 +6614,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -6678,7 +6678,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -6710,7 +6710,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -6742,7 +6742,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2025-09-29 11:41:27</t>
+          <t>2025-09-29 12:14:38</t>
         </is>
       </c>
     </row>

--- a/data/09_29_25_tradewheel_scrap.xlsx
+++ b/data/09_29_25_tradewheel_scrap.xlsx
@@ -435,7 +435,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
@@ -477,512 +477,512 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3 minutes ago</t>
+          <t>3 hours ago</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Requirement For Shipping Services</t>
+          <t>Quotation For Used Clothes</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/requirement-for-shipping-services/880515/</t>
+          <t>https://www.tradewheel.com/buyers/quotation-for-used-clothes/880545/</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hello I am looking for Shipping Services in Switzerland. We need to move our items from China the weight of total items would be more than 200kg please write to us as early as possible. Thank you</t>
+          <t>Hello We are looking for Used Clothes in UAE. We need shirts/blouse/ skirts/ trousers/ jackets also need business casuals for women Please share your catalogue with us We will 100pcs of each to check the quality of it. Thank you</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>4 hours ago</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Requirement for truck transmission</t>
+          <t>Requirement For Shipping Services</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/requirement-for-truck-transmission/880459/</t>
+          <t>https://www.tradewheel.com/buyers/requirement-for-shipping-services/880515/</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hi there, We have demand for truck transmission. Could you please send us the best price quotation for bulk purchase.</t>
+          <t>Hello I am looking for Shipping Services in Switzerland. We need to move our items from China the weight of total items would be more than 200kg please write to us as early as possible. Thank you</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Want to buy Loose Gemstone</t>
+          <t>Requirement for truck transmission</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-buy-loose-gemstone/880458/</t>
+          <t>https://www.tradewheel.com/buyers/requirement-for-truck-transmission/880459/</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hey, I need to purchase Loose Gemstone in bulk quantity. Kindly share the price list along the shipping charges and the other details.</t>
+          <t>Hi there, We have demand for truck transmission. Could you please send us the best price quotation for bulk purchase.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Importing Aluminum Ingots - Need quotes</t>
+          <t>Want to buy Loose Gemstone</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/importing-aluminum-ingots-need-quotes/880457/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-buy-loose-gemstone/880458/</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hello dear, I require Aluminum Ingots for export to europe for project use. Let me know the prices as per tons and the further details.</t>
+          <t>Hey, I need to purchase Loose Gemstone in bulk quantity. Kindly share the price list along the shipping charges and the other details.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Immediate purchase - Cotton Seed Hull</t>
+          <t>Importing Aluminum Ingots - Need quotes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/immediate-purchase-cotton-seed-hull/880456/</t>
+          <t>https://www.tradewheel.com/buyers/importing-aluminum-ingots-need-quotes/880457/</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hello, We are willing to purchase Cotton Seed Hull. Kindly suggest the best prices and more details.</t>
+          <t>Hello dear, I require Aluminum Ingots for export to europe for project use. Let me know the prices as per tons and the further details.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Would like to buy Egg Incubator</t>
+          <t>Immediate purchase - Cotton Seed Hull</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-buy-egg-incubator/880455/</t>
+          <t>https://www.tradewheel.com/buyers/immediate-purchase-cotton-seed-hull/880456/</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hey there, I am seeking to purchase Egg Incubator for wholesale. Quote prices and share the details.</t>
+          <t>Hello, We are willing to purchase Cotton Seed Hull. Kindly suggest the best prices and more details.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Quotation for Planners,Organizers,Notebooks,Professional Bags,Folders</t>
+          <t>Would like to buy Egg Incubator</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/quotation-for-plannersorganizersnotebooksprofessional-bagsfolders/880454/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-buy-egg-incubator/880455/</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hello mate, We are in need of Planners,Organizers,Notebooks,Professional Bags,Folders from manufacturer. Share the quotes and details with product pictures.</t>
+          <t>Hey there, I am seeking to purchase Egg Incubator for wholesale. Quote prices and share the details.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RFQ for Retatrutide</t>
+          <t>Quotation for Planners,Organizers,Notebooks,Professional Bags,Folders</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rfq-for-retatrutide/880453/</t>
+          <t>https://www.tradewheel.com/buyers/quotation-for-plannersorganizersnotebooksprofessional-bagsfolders/880454/</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hi there, I need prices and full details for buying Retatrutide with private labelling. Let me know availability ASAP.</t>
+          <t>Hello mate, We are in need of Planners,Organizers,Notebooks,Professional Bags,Folders from manufacturer. Share the quotes and details with product pictures.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Bulk purchase inquire for Rice</t>
+          <t>RFQ for Retatrutide</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/bulk-purchase-inquire-for-rice/880452/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-retatrutide/880453/</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hi buddy, I am ready for bulk purchase of Rice for export to europe. Let me know the prices and details.</t>
+          <t>Hi there, I need prices and full details for buying Retatrutide with private labelling. Let me know availability ASAP.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Looking for continuous supply of Nickel Wire</t>
+          <t>Bulk purchase inquire for Rice</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-continuous-supply-of-nickel-wire/880451/</t>
+          <t>https://www.tradewheel.com/buyers/bulk-purchase-inquire-for-rice/880452/</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hey there, We would like to import Nickel Wire for UAE project. Suggest the best prices and other details.</t>
+          <t>Hi buddy, I am ready for bulk purchase of Rice for export to europe. Let me know the prices and details.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>OEM Require for Hooks &amp; Rails</t>
+          <t>Looking for continuous supply of Nickel Wire</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/oem-require-for-hooks-rails/880450/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-continuous-supply-of-nickel-wire/880451/</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hey there, Quote prices and share the information for procuring Hooks &amp; Rails on large scale.</t>
+          <t>Hey there, We would like to import Nickel Wire for UAE project. Suggest the best prices and other details.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sourcing Soccer Wear at competitive prices</t>
+          <t>OEM Require for Hooks &amp; Rails</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/sourcing-soccer-wear-at-competitive-prices/880449/</t>
+          <t>https://www.tradewheel.com/buyers/oem-require-for-hooks-rails/880450/</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hello dear, I am looking for continuous supply of Soccer Wear with custom specs. Contact me so that i can tell you my requirements.</t>
+          <t>Hey there, Quote prices and share the information for procuring Hooks &amp; Rails on large scale.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Urgent requirement for Headlamp, Fog lamp, Tail lamp, Grille,Trailer Cover</t>
+          <t>Sourcing Soccer Wear at competitive prices</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/urgent-requirement-for-headlamp-fog-lamp-tail-lamp/880448/</t>
+          <t>https://www.tradewheel.com/buyers/sourcing-soccer-wear-at-competitive-prices/880449/</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hello dear, I have bulk order for Headlamp, Fog lamp, Tail lamp, Grille,Trailer Cover. Need prices and details.</t>
+          <t>Hello dear, I am looking for continuous supply of Soccer Wear with custom specs. Contact me so that i can tell you my requirements.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Puerto Rico</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Seeking to purchase Awnings</t>
+          <t>Urgent requirement for Headlamp, Fog lamp, Tail lamp, Grille,Trailer Cover</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-to-purchase-awnings/880447/</t>
+          <t>https://www.tradewheel.com/buyers/urgent-requirement-for-headlamp-fog-lamp-tail-lamp/880448/</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Hello, We need a supplier who can supply us the bulk quantity of Awnings in reasonable prices.</t>
+          <t>Hello dear, I have bulk order for Headlamp, Fog lamp, Tail lamp, Grille,Trailer Cover. Need prices and details.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Puerto Rico</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Prices for E-cigarette</t>
+          <t>Seeking to purchase Awnings</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/prices-for-e-cigarette/880446/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-to-purchase-awnings/880447/</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Hello, I am procuring E-cigarette with private labelling. Kindly send the quotes and details ASAP.</t>
+          <t>Hello, We need a supplier who can supply us the bulk quantity of Awnings in reasonable prices.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Want to buy Aluminum Scrap, Alloy Wheel Scrap</t>
+          <t>Prices for E-cigarette</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-buy-aluminum-scrap-alloy-wheel-scrap/880445/</t>
+          <t>https://www.tradewheel.com/buyers/prices-for-e-cigarette/880446/</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Hey friend, I am interested in purchasing Aluminum Scrap, Alloy Wheel Scrap in bulk quantity. Let me know the availability and price list.</t>
+          <t>Hello, I am procuring E-cigarette with private labelling. Kindly send the quotes and details ASAP.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -994,187 +994,187 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Buying Gypsum Powder for export buyers</t>
+          <t>Want to buy Aluminum Scrap, Alloy Wheel Scrap</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-gypsum-powder-for-export-buyers/880444/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-buy-aluminum-scrap-alloy-wheel-scrap/880445/</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Dear Sir / Madam, We are here likely to purchase Gypsum Powder with custom specs. Let me know the price quotation and other details.</t>
+          <t>Hey friend, I am interested in purchasing Aluminum Scrap, Alloy Wheel Scrap in bulk quantity. Let me know the availability and price list.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Need Temperature Instruments for export</t>
+          <t>Buying Gypsum Powder for export buyers</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-temperature-instruments-for-export/880443/</t>
+          <t>https://www.tradewheel.com/buyers/buying-gypsum-powder-for-export-buyers/880444/</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hello dear, I have rush order for Temperature Instruments. Contact ASAP.</t>
+          <t>Dear Sir / Madam, We are here likely to purchase Gypsum Powder with custom specs. Let me know the price quotation and other details.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Desire for buying Nutella, Drinks, Milk, Oil</t>
+          <t>Need Temperature Instruments for export</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/desire-for-buying-nutella-drinks-milk-oil/880442/</t>
+          <t>https://www.tradewheel.com/buyers/need-temperature-instruments-for-export/880443/</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hello mate, We wish to purchase Nutella, Drinks, Milk, Oil for E-commerce store launch. Share the price quotation and other details.</t>
+          <t>Hello dear, I have rush order for Temperature Instruments. Contact ASAP.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Requirement for Fresh Gala Apples, Red Apples, Sweet Apples, Crisp Apples</t>
+          <t>Desire for buying Nutella, Drinks, Milk, Oil</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/requirement-for-fresh-gala-apples-red-apples-sweet/880441/</t>
+          <t>https://www.tradewheel.com/buyers/desire-for-buying-nutella-drinks-milk-oil/880442/</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hey mate, We are sourcing Fresh Gala Apples, Red Apples, Sweet Apples, Crisp Apples at competitive prices. Send the details and price list.</t>
+          <t>Hello mate, We wish to purchase Nutella, Drinks, Milk, Oil for E-commerce store launch. Share the price quotation and other details.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>OEM Require for Rubber Product Making Machinery</t>
+          <t>Requirement for Fresh Gala Apples, Red Apples, Sweet Apples, Crisp Apples</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/oem-require-for-rubber-product-making-machinery/880440/</t>
+          <t>https://www.tradewheel.com/buyers/requirement-for-fresh-gala-apples-red-apples-sweet/880441/</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Hi there, I am buying Rubber Product Making Machinery for industrial use. Let me know the price list along the delivery charges and other details.</t>
+          <t>Hey mate, We are sourcing Fresh Gala Apples, Red Apples, Sweet Apples, Crisp Apples at competitive prices. Send the details and price list.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Myanmar</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>In need of Copper Wire Scrap , Copper Scrap from manufacturer</t>
+          <t>OEM Require for Rubber Product Making Machinery</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-need-of-copper-wire-scrap-copper/880439/</t>
+          <t>https://www.tradewheel.com/buyers/oem-require-for-rubber-product-making-machinery/880440/</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Hey there, I am intending to purchase Copper Wire Scrap , Copper Scrap on large scale. Quote prices and send the more details ASAP.</t>
+          <t>Hi there, I am buying Rubber Product Making Machinery for industrial use. Let me know the price list along the delivery charges and other details.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -1186,923 +1186,923 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Require Laminating Machines for export to UAE</t>
+          <t>In need of Copper Wire Scrap , Copper Scrap from manufacturer</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/require-laminating-machines-for-export-to-uae/880438/</t>
+          <t>https://www.tradewheel.com/buyers/in-need-of-copper-wire-scrap-copper/880439/</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Hey mate, We are requesting prices and details for buying Laminating Machines.</t>
+          <t>Hey there, I am intending to purchase Copper Wire Scrap , Copper Scrap on large scale. Quote prices and send the more details ASAP.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Purchasing Tizaro ,Tirzepatide in bulk</t>
+          <t>Require Laminating Machines for export to UAE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/purchasing-tizaro-tirzepatide-in-bulk/880437/</t>
+          <t>https://www.tradewheel.com/buyers/require-laminating-machines-for-export-to-uae/880438/</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Hello, I need urgently Tizaro ,Tirzepatide - MOQ 1,000 Units. Send price list and other details.</t>
+          <t>Hey mate, We are requesting prices and details for buying Laminating Machines.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Would like to buy Fresh Tomatoes</t>
+          <t>Purchasing Tizaro ,Tirzepatide in bulk</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-buy-fresh-tomatoes/880436/</t>
+          <t>https://www.tradewheel.com/buyers/purchasing-tizaro-tirzepatide-in-bulk/880437/</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Hi there, We are looking to purchase Fresh Tomatoes for retail chain supply. Let me know the prices as per ton and the other details.</t>
+          <t>Hello, I need urgently Tizaro ,Tirzepatide - MOQ 1,000 Units. Send price list and other details.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>RFQ for Shoes</t>
+          <t>Would like to buy Fresh Tomatoes</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rfq-for-shoes/880435/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-buy-fresh-tomatoes/880436/</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Hi there, We are ready to buy Shoes on large scale. Kindly share the price list, catalogue and the further details.</t>
+          <t>Hi there, We are looking to purchase Fresh Tomatoes for retail chain supply. Let me know the prices as per ton and the other details.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Wish to purchase Agricultural Equipment</t>
+          <t>RFQ for Shoes</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/wish-to-purchase-agricultural-equipment/880434/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-shoes/880435/</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Hello, I would like to purchase Agricultural Equipment for resale. Could you please share the catalogue, price list and other details.</t>
+          <t>Hi there, We are ready to buy Shoes on large scale. Kindly share the price list, catalogue and the further details.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Bulk purchase inquire for Pressure Gauges</t>
+          <t>Wish to purchase Agricultural Equipment</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/bulk-purchase-inquire-for-pressure-gauges/880433/</t>
+          <t>https://www.tradewheel.com/buyers/wish-to-purchase-agricultural-equipment/880434/</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Hello friend, I want details and price quotation for buying Pressure Gauges for construction use. Let me know ASAP.</t>
+          <t>Hello, I would like to purchase Agricultural Equipment for resale. Could you please share the catalogue, price list and other details.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Need to purchase tons of 10 ppm Diesel Fuel EN590, Jet Fuel A1, Crude Oil</t>
+          <t>Bulk purchase inquire for Pressure Gauges</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-to-purchase-tons-of-10-ppm-diesel/880432/</t>
+          <t>https://www.tradewheel.com/buyers/bulk-purchase-inquire-for-pressure-gauges/880433/</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Hello. I am planning for bulk purchase of 10 ppm Diesel Fuel EN590, Jet Fuel A1, Crude Oil. Quote prices and send the proper information.</t>
+          <t>Hello friend, I want details and price quotation for buying Pressure Gauges for construction use. Let me know ASAP.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Want to buy Copper Wire Scrap, Copper Isotope, Copper Cathode, Pure Cobalt</t>
+          <t>Need to purchase tons of 10 ppm Diesel Fuel EN590, Jet Fuel A1, Crude Oil</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-buy-copper-wire-scrap-copper-isotope/880431/</t>
+          <t>https://www.tradewheel.com/buyers/need-to-purchase-tons-of-10-ppm-diesel/880432/</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Hey mate, We are seeking to purchase Copper Wire Scrap, Copper Isotope, Copper Cathode, Pure Cobalt. Contact us so that we can tell you our requirements.</t>
+          <t>Hello. I am planning for bulk purchase of 10 ppm Diesel Fuel EN590, Jet Fuel A1, Crude Oil. Quote prices and send the proper information.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Quote prices for Californium Stone, Fire Stone, Thunder Stones</t>
+          <t>Want to buy Copper Wire Scrap, Copper Isotope, Copper Cathode, Pure Cobalt</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/quote-prices-for-californium-stone-fire-stone-thunder/880430/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-buy-copper-wire-scrap-copper-isotope/880431/</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Hi there, I am searching for supplier of Californium Stone, Fire Stone, Thunder Stones. Suggest the prices and other details.</t>
+          <t>Hey mate, We are seeking to purchase Copper Wire Scrap, Copper Isotope, Copper Cathode, Pure Cobalt. Contact us so that we can tell you our requirements.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Looking for Refrigerators with custom specs</t>
+          <t>Quote prices for Californium Stone, Fire Stone, Thunder Stones</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-refrigerators-with-custom-specs/880429/</t>
+          <t>https://www.tradewheel.com/buyers/quote-prices-for-californium-stone-fire-stone-thunder/880430/</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Hello mate, I am here likely to purchase Refrigerators for OEM. Kindly send quotes and details.</t>
+          <t>Hi there, I am searching for supplier of Californium Stone, Fire Stone, Thunder Stones. Suggest the prices and other details.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Immediate purchase - Cold Planer Tool Holder for Asphalt Milling Machine</t>
+          <t>Looking for Refrigerators with custom specs</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/immediate-purchase-cold-planer-tool-holder-for/880428/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-refrigerators-with-custom-specs/880429/</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Hello, We are importing Cold Planer Tool Holder for Asphalt Milling Machine on large scale. Kindly share the best price list and more details.</t>
+          <t>Hello mate, I am here likely to purchase Refrigerators for OEM. Kindly send quotes and details.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Need Calendar for residential use</t>
+          <t>Immediate purchase - Cold Planer Tool Holder for Asphalt Milling Machine</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-calendar-for-residential-use/880427/</t>
+          <t>https://www.tradewheel.com/buyers/immediate-purchase-cold-planer-tool-holder-for/880428/</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Hey there, I have requirement for Calendar. Need quotes and other details.</t>
+          <t>Hello, We are importing Cold Planer Tool Holder for Asphalt Milling Machine on large scale. Kindly share the best price list and more details.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Syria</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Quotation for Wheat Grain</t>
+          <t>Need Calendar for residential use</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/quotation-for-wheat-grain/880426/</t>
+          <t>https://www.tradewheel.com/buyers/need-calendar-for-residential-use/880427/</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Hello dear, Could you please share the price quotation and more details for purchasing Wheat Grain.</t>
+          <t>Hey there, I have requirement for Calendar. Need quotes and other details.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Searching for supplier of Cutting Plotter, Mini Cutting Plotter</t>
+          <t>Quotation for Wheat Grain</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-supplier-of-cutting-plotter-mini-cutting/880425/</t>
+          <t>https://www.tradewheel.com/buyers/quotation-for-wheat-grain/880426/</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Hey there, We are interested in purchasing Cutting Plotter, Mini Cutting Plotter. Quote prices and share the details along the delivery charges.</t>
+          <t>Hello dear, Could you please share the price quotation and more details for purchasing Wheat Grain.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Require Truck Suspension for OEM</t>
+          <t>Searching for supplier of Cutting Plotter, Mini Cutting Plotter</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/require-truck-suspension-for-oem/880424/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-supplier-of-cutting-plotter-mini-cutting/880425/</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Hi dear, I want to purchase Truck Suspension. Let me know the availability and price quotation.</t>
+          <t>Hey there, We are interested in purchasing Cutting Plotter, Mini Cutting Plotter. Quote prices and share the details along the delivery charges.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Intending to purchase Vape, Vaporesso</t>
+          <t>Require Truck Suspension for OEM</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/intending-to-purchase-vape-vaporesso/880423/</t>
+          <t>https://www.tradewheel.com/buyers/require-truck-suspension-for-oem/880424/</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Hello friend, I need prices and the details for buying Vape, Vaporesso. Contact ASAP.</t>
+          <t>Hi dear, I want to purchase Truck Suspension. Let me know the availability and price quotation.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Procuring Filters for resale</t>
+          <t>Intending to purchase Vape, Vaporesso</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/procuring-filters-for-resale/880422/</t>
+          <t>https://www.tradewheel.com/buyers/intending-to-purchase-vape-vaporesso/880423/</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Hi there, We are purchasing Filters in bulk. Let us know the total cost and the other details.</t>
+          <t>Hello friend, I need prices and the details for buying Vape, Vaporesso. Contact ASAP.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Printer Ribbons needed for industrial use</t>
+          <t>Procuring Filters for resale</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/printer-ribbons-needed-for-industrial-use/880421/</t>
+          <t>https://www.tradewheel.com/buyers/procuring-filters-for-resale/880422/</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Hey friend, Quote prices and share the proper details for purchasing Printer Ribbons on large scale.</t>
+          <t>Hi there, We are purchasing Filters in bulk. Let us know the total cost and the other details.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Rush order for Aluminum Scrap</t>
+          <t>Printer Ribbons needed for industrial use</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rush-order-for-aluminum-scrap/880420/</t>
+          <t>https://www.tradewheel.com/buyers/printer-ribbons-needed-for-industrial-use/880421/</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Hello dear, I want to place bulk order for Aluminum Scrap. Kindly suggest the best prices and other details.</t>
+          <t>Hey friend, Quote prices and share the proper details for purchasing Printer Ribbons on large scale.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Drip Irrigation Parts supplier needed for export buyers</t>
+          <t>Rush order for Aluminum Scrap</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/drip-irrigation-parts-supplier-needed-for-export-buyers/880419/</t>
+          <t>https://www.tradewheel.com/buyers/rush-order-for-aluminum-scrap/880420/</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Hey there, I am searching for Drip Irrigation Parts. Could you please help me to procure this in reasonable prices.</t>
+          <t>Hello dear, I want to place bulk order for Aluminum Scrap. Kindly suggest the best prices and other details.</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Demand for Skin Care Serum</t>
+          <t>Drip Irrigation Parts supplier needed for export buyers</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/demand-for-skin-care-serum/880418/</t>
+          <t>https://www.tradewheel.com/buyers/drip-irrigation-parts-supplier-needed-for-export-buyers/880419/</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Hey mate, I have desire for buying Skin Care Serum for wholesale. Need price quotation and proper details.</t>
+          <t>Hey there, I am searching for Drip Irrigation Parts. Could you please help me to procure this in reasonable prices.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Seeking to buy Plus Size Shirts &amp; Blouses</t>
+          <t>Demand for Skin Care Serum</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-to-buy-plus-size-shirts-blouses/880417/</t>
+          <t>https://www.tradewheel.com/buyers/demand-for-skin-care-serum/880418/</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Hello, We are procuring Plus Size Shirts &amp; Blouses with private labelling. Let us know the prices, details and the MOQ.</t>
+          <t>Hey mate, I have desire for buying Skin Care Serum for wholesale. Need price quotation and proper details.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Urgently Need Vape And Electronic Cigarettes - MOQ 1,000 Units</t>
+          <t>Seeking to buy Plus Size Shirts &amp; Blouses</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/urgently-need-vape-and-electronic-cigarettes-moq/880416/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-to-buy-plus-size-shirts-blouses/880417/</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Dear Sir / Madam, I wish to buy Vape And Electronic Cigarettes for export to europe. Kindly send the proper details and the price quotation.</t>
+          <t>Hello, We are procuring Plus Size Shirts &amp; Blouses with private labelling. Let us know the prices, details and the MOQ.</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Purchasing Tricon Bits, Drilling Bits, Cone Bits in bulk</t>
+          <t>Urgently Need Vape And Electronic Cigarettes - MOQ 1,000 Units</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/purchasing-tricon-bits-drilling-bits-cone-bits-in/880415/</t>
+          <t>https://www.tradewheel.com/buyers/urgently-need-vape-and-electronic-cigarettes-moq/880416/</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Hello dear, We are intending to purchase Tricon Bits, Drilling Bits, Cone Bits for industrial use. Quote prices and the other details.</t>
+          <t>Dear Sir / Madam, I wish to buy Vape And Electronic Cigarettes for export to europe. Kindly send the proper details and the price quotation.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Prices for Wigs</t>
+          <t>Purchasing Tricon Bits, Drilling Bits, Cone Bits in bulk</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/prices-for-wigs/880414/</t>
+          <t>https://www.tradewheel.com/buyers/purchasing-tricon-bits-drilling-bits-cone-bits-in/880415/</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Hey there, I am ready for bulk purchase of Wigs. Share the reasonable prices and other details.</t>
+          <t>Hello dear, We are intending to purchase Tricon Bits, Drilling Bits, Cone Bits for industrial use. Quote prices and the other details.</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Willing to purchase Liz Tox, Dermal Filler, Botulinum Toxin</t>
+          <t>Prices for Wigs</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/willing-to-purchase-liz-tox-dermal-filler-botulinum/880413/</t>
+          <t>https://www.tradewheel.com/buyers/prices-for-wigs/880414/</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Hi buddy, I am buying Liz Tox, Dermal Filler, Botulinum Toxin for wholesale. Need prices and other details for large scale purchase.</t>
+          <t>Hey there, I am ready for bulk purchase of Wigs. Share the reasonable prices and other details.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Cayman Islands</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Sourcing Human Hair Wigs at competitive prices</t>
+          <t>Willing to purchase Liz Tox, Dermal Filler, Botulinum Toxin</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/sourcing-human-hair-wigs-at-competitive-prices/880412/</t>
+          <t>https://www.tradewheel.com/buyers/willing-to-purchase-liz-tox-dermal-filler-botulinum/880413/</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Hello mate, I am in search of Human Hair for salon purpose. Quote the best prices and share the proper details.</t>
+          <t>Hi buddy, I am buying Liz Tox, Dermal Filler, Botulinum Toxin for wholesale. Need prices and other details for large scale purchase.</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Cayman Islands</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>OEM Require for Industrial Furnace</t>
+          <t>Sourcing Human Hair Wigs at competitive prices</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/oem-require-for-industrial-furnace/880411/</t>
+          <t>https://www.tradewheel.com/buyers/sourcing-human-hair-wigs-at-competitive-prices/880412/</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Hey mate, I would like to purchase Industrial Furnace with custom specs. Kindly share the price list along the delivery charges and proper details.</t>
+          <t>Hello mate, I am in search of Human Hair for salon purpose. Quote the best prices and share the proper details.</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Searching for Volcanic Stone</t>
+          <t>OEM Require for Industrial Furnace</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-volcanic-stone/880410/</t>
+          <t>https://www.tradewheel.com/buyers/oem-require-for-industrial-furnace/880411/</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Hey there, I am seeking for supplier for buying bulk quantity of Volcanic Stone. Let me know the prices and details ASAP.</t>
+          <t>Hey mate, I would like to purchase Industrial Furnace with custom specs. Kindly share the price list along the delivery charges and proper details.</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -2114,59 +2114,59 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Bulk purchase inquire for Aluminum Scrap</t>
+          <t>Searching for Volcanic Stone</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/bulk-purchase-inquire-for-aluminum-scrap/880409/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-volcanic-stone/880410/</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Hello dear, We are looking for continuous supply of Aluminum Scrap. Could you please share the details and price quotation along the shipping charges.</t>
+          <t>Hey there, I am seeking for supplier for buying bulk quantity of Volcanic Stone. Let me know the prices and details ASAP.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Buying Frozen Chicken for retail chain supply</t>
+          <t>Bulk purchase inquire for Aluminum Scrap</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-frozen-chicken-for-retail-chain-supply/880408/</t>
+          <t>https://www.tradewheel.com/buyers/bulk-purchase-inquire-for-aluminum-scrap/880409/</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Hello, I have urgent requirement for Frozen Chicken. Need quotes and details.</t>
+          <t>Hello dear, We are looking for continuous supply of Aluminum Scrap. Could you please share the details and price quotation along the shipping charges.</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -2178,219 +2178,219 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Copper Scrap need for E-commerce store</t>
+          <t>Buying Frozen Chicken for retail chain supply</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/copper-scrap-need-for-e-commerce-store/880407/</t>
+          <t>https://www.tradewheel.com/buyers/buying-frozen-chicken-for-retail-chain-supply/880408/</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Hello dear, We are here likely to import Copper Scrap on large scale. Kindly share the best price quotation and the more details,</t>
+          <t>Hello, I have urgent requirement for Frozen Chicken. Need quotes and details.</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Looking to buy Self Adhesive Silicone Rubber Strip</t>
+          <t>Copper Scrap need for E-commerce store</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-to-buy-self-adhesive-silicone-rubber-strip/880406/</t>
+          <t>https://www.tradewheel.com/buyers/copper-scrap-need-for-e-commerce-store/880407/</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Hey Friend, I am eager to purchase Self Adhesive Silicone Rubber Strip Width 20mm And Thickness 4mm. Send the price list and more information.</t>
+          <t>Hello dear, We are here likely to import Copper Scrap on large scale. Kindly share the best price quotation and the more details,</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Republic of Türkiye</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Urgent Requirement for Alfalfa Hay</t>
+          <t>Looking to buy Self Adhesive Silicone Rubber Strip</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/urgent-requirement-for-alfalfa-hay/880405/</t>
+          <t>https://www.tradewheel.com/buyers/looking-to-buy-self-adhesive-silicone-rubber-strip/880406/</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Hey dear, We urgently need Alfalfa Hay - MOQ 1,000 Units. Share the best prices and proper details.</t>
+          <t>Hey Friend, I am eager to purchase Self Adhesive Silicone Rubber Strip Width 20mm And Thickness 4mm. Send the price list and more information.</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Republic of Türkiye</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Interested in buying Mobile Phones, Iphone</t>
+          <t>Urgent Requirement for Alfalfa Hay</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-buying-mobile-phones-iphone/880404/</t>
+          <t>https://www.tradewheel.com/buyers/urgent-requirement-for-alfalfa-hay/880405/</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Hey mate, We are in need of Mobile Phones, Iphone from manufacturer. Let me know the varieties you own and the price quotation.</t>
+          <t>Hey dear, We urgently need Alfalfa Hay - MOQ 1,000 Units. Share the best prices and proper details.</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Want to buy tons of Copper Ingots</t>
+          <t>Interested in buying Mobile Phones, Iphone</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-buy-tons-of-copper-ingots/880403/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-buying-mobile-phones-iphone/880404/</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Hey mate, We require Copper Ingots for export to UAE. Kindly share the best price list and proper information.</t>
+          <t>Hey mate, We are in need of Mobile Phones, Iphone from manufacturer. Let me know the varieties you own and the price quotation.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Need to buy Power Tools, Garden Tool, Hand Tool, Socket</t>
+          <t>Want to buy tons of Copper Ingots</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-to-buy-power-tools-garden-tool-hand/880402/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-buy-tons-of-copper-ingots/880403/</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Hello, I am purchasing Power Tools, Garden Tool, Hand Tool, Socket for project use. Quote prices and share the other details.</t>
+          <t>Hey mate, We require Copper Ingots for export to UAE. Kindly share the best price list and proper information.</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Require Baby Diapers for wholesale</t>
+          <t>Need to buy Power Tools, Garden Tool, Hand Tool, Socket</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/require-baby-diapers-for-wholesale/880401/</t>
+          <t>https://www.tradewheel.com/buyers/need-to-buy-power-tools-garden-tool-hand/880402/</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Hey there, I am willing to purchase Baby Diapers on large scale. Quote prices and share the catalogue ASAP.</t>
+          <t>Hello, I am purchasing Power Tools, Garden Tool, Hand Tool, Socket for project use. Quote prices and share the other details.</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -2402,379 +2402,379 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Quote prices for Icumsa 45 Sugar</t>
+          <t>Require Baby Diapers for wholesale</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/quote-prices-for-icumsa-45-sugar/880399/</t>
+          <t>https://www.tradewheel.com/buyers/require-baby-diapers-for-wholesale/880401/</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Hi there, We are planning for bulk purchase of Icumsa 45 Sugar for E-commerce store launch. Kindly share the best prices and other details.</t>
+          <t>Hey there, I am willing to purchase Baby Diapers on large scale. Quote prices and share the catalogue ASAP.</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Demand for Paper Boxes, Packaging Boxes, Paper Cups, Pizza Boxes</t>
+          <t>Quote prices for Icumsa 45 Sugar</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/demand-for-paper-boxes-packaging-boxes-paper-cups/880398/</t>
+          <t>https://www.tradewheel.com/buyers/quote-prices-for-icumsa-45-sugar/880399/</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Hello dear I have rush order for Paper Boxes, Packaging Boxes, Paper Cups, Pizza Boxes. Need prices and other details for bulk purchase.</t>
+          <t>Hi there, We are planning for bulk purchase of Icumsa 45 Sugar for E-commerce store launch. Kindly share the best prices and other details.</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Quotation for Aggregate</t>
+          <t>Demand for Paper Boxes, Packaging Boxes, Paper Cups, Pizza Boxes</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/quotation-for-aggregate/880397/</t>
+          <t>https://www.tradewheel.com/buyers/demand-for-paper-boxes-packaging-boxes-paper-cups/880398/</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Hello dear, I am looking to purchase Aggregate for construction use. Kindly send the best prices and more details.</t>
+          <t>Hello dear I have rush order for Paper Boxes, Packaging Boxes, Paper Cups, Pizza Boxes. Need prices and other details for bulk purchase.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>16 hours ago</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Prices for Hardware, Cross Hinges, Locks, Door Hardware, Channel Case Hinge</t>
+          <t>Quotation for Aggregate</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/prices-for-hardware-cross-hinges-locks-door-hardware/880396/</t>
+          <t>https://www.tradewheel.com/buyers/quotation-for-aggregate/880397/</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Hey there. We are buying Hardware, Cross Hinges, Locks, Door Hardware, Channel Case Hinge for industrial use. Let us know the best prices and other details.</t>
+          <t>Hello dear, I am looking to purchase Aggregate for construction use. Kindly send the best prices and more details.</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>16 hours ago</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>RFQ for Pharmaceutical Machinery</t>
+          <t>Prices for Hardware, Cross Hinges, Locks, Door Hardware, Channel Case Hinge</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rfq-for-pharmaceutical-machinery/880393/</t>
+          <t>https://www.tradewheel.com/buyers/prices-for-hardware-cross-hinges-locks-door-hardware/880396/</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Hey there, We are looking to purchase Pharmaceutical Machinery on large scale. Share the price list and other details.</t>
+          <t>Hey there. We are buying Hardware, Cross Hinges, Locks, Door Hardware, Channel Case Hinge for industrial use. Let us know the best prices and other details.</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>16 hours ago</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Wish to purchase Trash Bag</t>
+          <t>RFQ for Pharmaceutical Machinery</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/wish-to-purchase-trash-bag/880392/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-pharmaceutical-machinery/880393/</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Hey there. I am interested in purchasing Trash Bag for residential use. Let me know the prices and details.</t>
+          <t>Hey there, We are looking to purchase Pharmaceutical Machinery on large scale. Share the price list and other details.</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>16 hours ago</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Searching For Centrifuge tube</t>
+          <t>Wish to purchase Trash Bag</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-centrifuge-tube/880377/</t>
+          <t>https://www.tradewheel.com/buyers/wish-to-purchase-trash-bag/880392/</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Hello, Our company is looking for durable and sterile centrifuge tubes with leak-proof design. Suppliers are requested to share catalog, MOQ, lead time, and competitive quotations.</t>
+          <t>Hey there. I am interested in purchasing Trash Bag for residential use. Let me know the prices and details.</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Willing to procure Industrial Vacuum Cleaner</t>
+          <t>Searching For Centrifuge tube</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/willing-to-procure-industrial-vacuum-cleaner/880368/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-centrifuge-tube/880377/</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Greetings, We are looking to purchase heavy-duty industrial vacuum cleaners with strong suction power for factory and warehouse use. Suppliers are requested to share specifications, price lists, and delivery timelines. Thank you!</t>
+          <t>Hello, Our company is looking for durable and sterile centrifuge tubes with leak-proof design. Suppliers are requested to share catalog, MOQ, lead time, and competitive quotations.</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Need Garlic Extract For Food And Health Supplement Market</t>
+          <t>Willing to procure Industrial Vacuum Cleaner</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-garlic-extract-for-food-and-health-supplement/880366/</t>
+          <t>https://www.tradewheel.com/buyers/willing-to-procure-industrial-vacuum-cleaner/880368/</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>We are sourcing garlic extract for health supplement production. Purity, concentration, and shelf life are important. Regular supply may be needed for long-term contracts. Can you provide extraction method details and available packaging sizes?</t>
+          <t>Greetings, We are looking to purchase heavy-duty industrial vacuum cleaners with strong suction power for factory and warehouse use. Suppliers are requested to share specifications, price lists, and delivery timelines. Thank you!</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Importing Electric Scooters For Consumer Market from Asian countries</t>
+          <t>Need Garlic Extract For Food And Health Supplement Market</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/importing-electric-scooters-for-consumer-market-from-asian/880365/</t>
+          <t>https://www.tradewheel.com/buyers/need-garlic-extract-for-food-and-health-supplement/880366/</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Our company is sourcing electric scooters for retail distribution. Battery life, motor efficiency, and safety standards are key. Large orders may be placed for multiple stores. Can you provide models with varying speed and range options?</t>
+          <t>We are sourcing garlic extract for health supplement production. Purity, concentration, and shelf life are important. Regular supply may be needed for long-term contracts. Can you provide extraction method details and available packaging sizes?</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Puerto Rico</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Seeking Fascia-Front Bumper For Car Parts And Service Market</t>
+          <t>Importing Electric Scooters For Consumer Market from Asian countries</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-fascia-front-bumper-for-car-parts-and-service/880364/</t>
+          <t>https://www.tradewheel.com/buyers/importing-electric-scooters-for-consumer-market-from-asian/880365/</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Looking to buy genuine front bumpers for vehicles. Material: ABS plastic / Composite Fitment: Model-specific Condition: New / OEM Packaging: Export-ready</t>
+          <t>Our company is sourcing electric scooters for retail distribution. Battery life, motor efficiency, and safety standards are key. Large orders may be placed for multiple stores. Can you provide models with varying speed and range options?</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Puerto Rico</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Need Scarves For Fashion And Apparel Market</t>
+          <t>Seeking Fascia-Front Bumper For Car Parts And Service Market</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-scarves-for-fashion-and-apparel-market/880363/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-fascia-front-bumper-for-car-parts-and-service/880364/</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Hi, I am seeking scarves for wholesale fashion supply. Material: Silk, cotton, polyester, wool Size: 60x60 cm – 180x70 cm Colors: Assorted / seasonal Packaging: Polybagged or boxed</t>
+          <t>Looking to buy genuine front bumpers for vehicles. Material: ABS plastic / Composite Fitment: Model-specific Condition: New / OEM Packaging: Export-ready</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -2786,27 +2786,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Need Home Decor Items For Residential And Commercial Use</t>
+          <t>Need Scarves For Fashion And Apparel Market</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-home-decor-items-for-residential-and-commercial/880362/</t>
+          <t>https://www.tradewheel.com/buyers/need-scarves-for-fashion-and-apparel-market/880363/</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Looking to purchase home decor items for retail supply. Type: Wall art, vases, sculptures, lighting Material: Wood, metal, ceramic, glass Packaging: Retail boxes</t>
+          <t>Hi, I am seeking scarves for wholesale fashion supply. Material: Silk, cotton, polyester, wool Size: 60x60 cm – 180x70 cm Colors: Assorted / seasonal Packaging: Polybagged or boxed</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -2818,27 +2818,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Need Rubber Pad For Industrial And Mechanical Use</t>
+          <t>Need Home Decor Items For Residential And Commercial Use</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-rubber-pad-for-industrial-and-mechanical-use/880361/</t>
+          <t>https://www.tradewheel.com/buyers/need-home-decor-items-for-residential-and-commercial/880362/</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Interested in rubber pads for industrial and machinery use. Material: EPDM / NBR / Silicone Size: Custom &amp; standard Hardness: 30–90 Shore A Application: Anti-vibration, sealing</t>
+          <t>Looking to purchase home decor items for retail supply. Type: Wall art, vases, sculptures, lighting Material: Wood, metal, ceramic, glass Packaging: Retail boxes</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -2850,475 +2850,475 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Buying Coating Machines With High Efficiency And Quality</t>
+          <t>Need Rubber Pad For Industrial And Mechanical Use</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-coating-machines-with-high-efficiency-and-quality/880359/</t>
+          <t>https://www.tradewheel.com/buyers/need-rubber-pad-for-industrial-and-mechanical-use/880361/</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>We are sourcing coating machines for industrial production. Coating uniformity, machine durability, and maintenance ease are critical. Bulk procurement may be considered for long-term projects. Do you provide automatic or semi-automatic models?</t>
+          <t>Interested in rubber pads for industrial and machinery use. Material: EPDM / NBR / Silicone Size: Custom &amp; standard Hardness: 30–90 Shore A Application: Anti-vibration, sealing</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Need Hairdressing Foil Roll For Salons And Cosmetic Use</t>
+          <t>Buying Coating Machines With High Efficiency And Quality</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-hairdressing-foil-roll-for-salons-and-cosmetic/880358/</t>
+          <t>https://www.tradewheel.com/buyers/buying-coating-machines-with-high-efficiency-and-quality/880359/</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>We require hairdressing foil rolls for salon use. Thickness, tear resistance, and length per roll are key. Regular supply may be required for multiple outlets. Can you provide different sizes and pack types?</t>
+          <t>We are sourcing coating machines for industrial production. Coating uniformity, machine durability, and maintenance ease are critical. Bulk procurement may be considered for long-term projects. Do you provide automatic or semi-automatic models?</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Seeking Cosmetics For Salons And Wholesale Market</t>
+          <t>Need Hairdressing Foil Roll For Salons And Cosmetic Use</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-cosmetics-for-salons-and-wholesale-market/880357/</t>
+          <t>https://www.tradewheel.com/buyers/need-hairdressing-foil-roll-for-salons-and-cosmetic/880358/</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>We are sourcing a range of cosmetics including skincare and makeup. Product quality, ingredient safety, and shelf life are critical. Bulk orders will be reviewed for retail channels. Do you offer private labeling and export-ready packaging?</t>
+          <t>We require hairdressing foil rolls for salon use. Thickness, tear resistance, and length per roll are key. Regular supply may be required for multiple outlets. Can you provide different sizes and pack types?</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Kiribati</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Need Tanker Truck For Industrial And Transportation Use</t>
+          <t>Seeking Cosmetics For Salons And Wholesale Market</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-tanker-truck-for-industrial-and-transportation-use/880356/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-cosmetics-for-salons-and-wholesale-market/880357/</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Our business needs tanker trucks for liquid transport. Tank capacity, build quality, and compliance with safety standards are essential. Large-volume sourcing may be needed for fleet expansion. Can you provide engine specs and available tank material...</t>
+          <t>We are sourcing a range of cosmetics including skincare and makeup. Product quality, ingredient safety, and shelf life are critical. Bulk orders will be reviewed for retail channels. Do you offer private labeling and export-ready packaging?</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Kiribati</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Seeking Vape Products For Electronic Cigarette Market</t>
+          <t>Need Tanker Truck For Industrial And Transportation Use</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-vape-products-for-electronic-cigarette-market/880355/</t>
+          <t>https://www.tradewheel.com/buyers/need-tanker-truck-for-industrial-and-transportation-use/880356/</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Our company is sourcing disposable and refillable vapes. Battery life, flavor range, and safety compliance are key concerns. Regular supply will be evaluated for retail distribution. Could you share available designs and nicotine strengths?</t>
+          <t>Our business needs tanker trucks for liquid transport. Tank capacity, build quality, and compliance with safety standards are essential. Large-volume sourcing may be needed for fleet expansion. Can you provide engine specs and available tank material...</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Want to Buy fresh and dried Mushrooms</t>
+          <t>Seeking Vape Products For Electronic Cigarette Market</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-buy-fresh-and-dried-mushrooms/880354/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-vape-products-for-electronic-cigarette-market/880355/</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Our company is interested in sourcing both fresh and dried mushrooms for retail and food processing. Please provide product details, certifications, competitive quotes, and lead times.</t>
+          <t>Our company is sourcing disposable and refillable vapes. Battery life, flavor range, and safety compliance are key concerns. Regular supply will be evaluated for retail distribution. Could you share available designs and nicotine strengths?</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Seeking Vending Machines For Food And Beverage Market</t>
+          <t>Want to Buy fresh and dried Mushrooms</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-vending-machines-for-food-and-beverage-market/880351/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-buy-fresh-and-dried-mushrooms/880354/</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Interested in vending machines for bulk supply. Type: Snack, beverage, combo Power: 110V–240V Capacity: 100–500 items Features: Cashless payment, refrigerated</t>
+          <t>Our company is interested in sourcing both fresh and dried mushrooms for retail and food processing. Please provide product details, certifications, competitive quotes, and lead times.</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Seeking Copper Scrap For Manufacturing And Metal Industry</t>
+          <t>Seeking Vending Machines For Food And Beverage Market</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-copper-scrap-for-manufacturing-and-metal-industry/880350/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-vending-machines-for-food-and-beverage-market/880351/</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Our business is sourcing copper scrap for recycling purposes. Purity levels, contamination rates, and bale weight are important. Regular supply and export packaging are needed. Could you share your average copper recovery percentage?</t>
+          <t>Interested in vending machines for bulk supply. Type: Snack, beverage, combo Power: 110V–240V Capacity: 100–500 items Features: Cashless payment, refrigerated</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Importing Aluminium Ingots A7 For Manufacturing Industry from Asian countries</t>
+          <t>Seeking Copper Scrap For Manufacturing And Metal Industry</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/importing-aluminium-ingots-a7-for-manufacturing-industry-from/880349/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-copper-scrap-for-manufacturing-and-metal-industry/880350/</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>We are sourcing A7 aluminum ingots for industrial processing. Purity, weight consistency, and mold quality are critical. Large-volume supply will be required regularly. Can you provide chemical composition and certification for export?</t>
+          <t>Our business is sourcing copper scrap for recycling purposes. Purity levels, contamination rates, and bale weight are important. Regular supply and export packaging are needed. Could you share your average copper recovery percentage?</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Buying Paper With High Quality And Standard Thickness</t>
+          <t>Importing Aluminium Ingots A7 For Manufacturing Industry from Asian countries</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-paper-with-high-quality-and-standard-thickness/880348/</t>
+          <t>https://www.tradewheel.com/buyers/importing-aluminium-ingots-a7-for-manufacturing-industry-from/880349/</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Looking to buy paper for printing and packaging. Types: Copier, kraft, card, specialty GSM: 70–350 Size: A4, A3, Custom sheets Packaging: Ream / Bulk packs</t>
+          <t>We are sourcing A7 aluminum ingots for industrial processing. Purity, weight consistency, and mold quality are critical. Large-volume supply will be required regularly. Can you provide chemical composition and certification for export?</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Need Motor Controller For Industrial And Automation Applications</t>
+          <t>Buying Paper With High Quality And Standard Thickness</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-motor-controller-for-industrial-and-automation-applications/880347/</t>
+          <t>https://www.tradewheel.com/buyers/buying-paper-with-high-quality-and-standard-thickness/880348/</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>I want motor controllers for industrial and EV applications. Type: AC / DC / BLDC Voltage: 12–480V Current: 5–200A Features: Overload, short-circuit protection Certification: CE / UL</t>
+          <t>Looking to buy paper for printing and packaging. Types: Copier, kraft, card, specialty GSM: 70–350 Size: A4, A3, Custom sheets Packaging: Ream / Bulk packs</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Need Oil Pressers For Food And Industrial Applications</t>
+          <t>Need Motor Controller For Industrial And Automation Applications</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-oil-pressers-for-food-and-industrial-applications/880346/</t>
+          <t>https://www.tradewheel.com/buyers/need-motor-controller-for-industrial-and-automation-applications/880347/</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Need oil pressing machines for edible oil production. Type: Hydraulic / Screw press Capacity: 5–100 ton/day Material: Stainless steel / Cast iron Power: Electric / Diesel</t>
+          <t>I want motor controllers for industrial and EV applications. Type: AC / DC / BLDC Voltage: 12–480V Current: 5–200A Features: Overload, short-circuit protection Certification: CE / UL</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Buying SS Clinch Nuts With High Strength And Quality Standards</t>
+          <t>Need Oil Pressers For Food And Industrial Applications</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-ss-clinch-nuts-with-high-strength-and/880345/</t>
+          <t>https://www.tradewheel.com/buyers/need-oil-pressers-for-food-and-industrial-applications/880346/</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Looking for stainless steel clinch nuts for industrial applications. Material: SS304 / SS316 Size: M3–M12 Finish: Polished / Plain Application: Sheet metal assembly</t>
+          <t>Need oil pressing machines for edible oil production. Type: Hydraulic / Screw press Capacity: 5–100 ton/day Material: Stainless steel / Cast iron Power: Electric / Diesel</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Need Curtains For Interior And Home Furnishing Market</t>
+          <t>Buying SS Clinch Nuts With High Strength And Quality Standards</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-curtains-for-interior-and-home-furnishing-market/880344/</t>
+          <t>https://www.tradewheel.com/buyers/buying-ss-clinch-nuts-with-high-strength-and/880345/</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Interested in bulk curtains for commercial and retail use. Material: Cotton, polyester, velvet Sizes: Standard &amp; custom Style: Sheer, blackout, patterned Packaging: Export cartons</t>
+          <t>Looking for stainless steel clinch nuts for industrial applications. Material: SS304 / SS316 Size: M3–M12 Finish: Polished / Plain Application: Sheet metal assembly</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Need Candles For Home And Decorative Use</t>
+          <t>Need Curtains For Interior And Home Furnishing Market</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-candles-for-home-and-decorative-use/880342/</t>
+          <t>https://www.tradewheel.com/buyers/need-curtains-for-interior-and-home-furnishing-market/880344/</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>We would like to purchase scented and unscented candles made of soy or paraffin wax, in assorted shapes, with safe wicks and retail-ready packaging. Kindly confirm MOQ and lead time.</t>
+          <t>Interested in bulk curtains for commercial and retail use. Material: Cotton, polyester, velvet Sizes: Standard &amp; custom Style: Sheer, blackout, patterned Packaging: Export cartons</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -3330,987 +3330,987 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Buying Hair Loss Treatment With Certified Quality And Effectiveness</t>
+          <t>Need Candles For Home And Decorative Use</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-hair-loss-treatment-with-certified-quality-and/880340/</t>
+          <t>https://www.tradewheel.com/buyers/need-candles-for-home-and-decorative-use/880342/</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>We are sourcing hair loss treatment products for wholesale supply. Form: Serum, shampoo, lotion Ingredients: Minoxidil, natural extracts Packaging: 50–200ml bottles</t>
+          <t>We would like to purchase scented and unscented candles made of soy or paraffin wax, in assorted shapes, with safe wicks and retail-ready packaging. Kindly confirm MOQ and lead time.</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Buying Used Shoes With Good Condition And Variety</t>
+          <t>Buying Hair Loss Treatment With Certified Quality And Effectiveness</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-used-shoes-with-good-condition-and-variety/880337/</t>
+          <t>https://www.tradewheel.com/buyers/buying-hair-loss-treatment-with-certified-quality-and/880340/</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Hi, I want to explore suppliers of used shoes for retail distribution. Please share packaging methods and minimum order quantities.</t>
+          <t>We are sourcing hair loss treatment products for wholesale supply. Form: Serum, shampoo, lotion Ingredients: Minoxidil, natural extracts Packaging: 50–200ml bottles</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Buying Solar Controllers With Reliable And Efficient Performance</t>
+          <t>Buying Used Shoes With Good Condition And Variety</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-solar-controllers-with-reliable-and-efficient-performance/880335/</t>
+          <t>https://www.tradewheel.com/buyers/buying-used-shoes-with-good-condition-and-variety/880337/</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>I am sourcing solar charge controllers for projects. Type: PWM / MPPT Voltage: 12V / 24V / 48V Capacity: 10A–100A Application: Solar systems</t>
+          <t>Hi, I want to explore suppliers of used shoes for retail distribution. Please share packaging methods and minimum order quantities.</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Need Plates For Household And Hospitality Supply</t>
+          <t>Buying Solar Controllers With Reliable And Efficient Performance</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-plates-for-household-and-hospitality-supply/880334/</t>
+          <t>https://www.tradewheel.com/buyers/buying-solar-controllers-with-reliable-and-efficient-performance/880335/</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>I am purchasing plates for kitchenware supply. Material: Ceramic / Glass / Melamine / Steel Diameter: 6–12 inches Shape: Round / Square Packaging: Boxed sets</t>
+          <t>I am sourcing solar charge controllers for projects. Type: PWM / MPPT Voltage: 12V / 24V / 48V Capacity: 10A–100A Application: Solar systems</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Buying Ox Stone With Assured Strength And Quality</t>
+          <t>Need Plates For Household And Hospitality Supply</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-ox-stone-with-assured-strength-and-quality/880333/</t>
+          <t>https://www.tradewheel.com/buyers/need-plates-for-household-and-hospitality-supply/880334/</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Hi dear sellers. We need ox stones in bulk. Please confirm available grades and pricing.</t>
+          <t>I am purchasing plates for kitchenware supply. Material: Ceramic / Glass / Melamine / Steel Diameter: 6–12 inches Shape: Round / Square Packaging: Boxed sets</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Buying Used Clothes With Good Wearable Condition</t>
+          <t>Buying Ox Stone With Assured Strength And Quality</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-used-clothes-with-good-wearable-condition/880332/</t>
+          <t>https://www.tradewheel.com/buyers/buying-ox-stone-with-assured-strength-and-quality/880333/</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>I am searching for sellers of used clothes for resale. Grade: A/B/C Type: Mixed (Men/Women/Children) Packaging: 45–100 kg bales</t>
+          <t>Hi dear sellers. We need ox stones in bulk. Please confirm available grades and pricing.</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Need Knitted Fabric For Apparel And Garment Production</t>
+          <t>Buying Used Clothes With Good Wearable Condition</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-knitted-fabric-for-apparel-and-garment-production/880331/</t>
+          <t>https://www.tradewheel.com/buyers/buying-used-clothes-with-good-wearable-condition/880332/</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>I am sourcing knitted fabric for garment making. Material: Cotton / Polyester / Blends Width: 40–80 inches GSM: 120–300 Use: Apparel / Sportswear</t>
+          <t>I am searching for sellers of used clothes for resale. Grade: A/B/C Type: Mixed (Men/Women/Children) Packaging: 45–100 kg bales</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Buying Cleaning Brushes With Durable And Effective Quality</t>
+          <t>Need Knitted Fabric For Apparel And Garment Production</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-cleaning-brushes-with-durable-and-effective-quality/880330/</t>
+          <t>https://www.tradewheel.com/buyers/need-knitted-fabric-for-apparel-and-garment-production/880331/</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>I want to source cleaning brushes for household supply. Material: Plastic / Wooden / Steel wire Size: Small–Large Handle: With / Without Usage: Kitchen, floor, industrial</t>
+          <t>I am sourcing knitted fabric for garment making. Material: Cotton / Polyester / Blends Width: 40–80 inches GSM: 120–300 Use: Apparel / Sportswear</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Need Polyester Yarn For Textile And Fabric Manufacturing</t>
+          <t>Buying Cleaning Brushes With Durable And Effective Quality</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-polyester-yarn-for-textile-and-fabric-manufacturing/880329/</t>
+          <t>https://www.tradewheel.com/buyers/buying-cleaning-brushes-with-durable-and-effective-quality/880330/</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>We would like to purchase 100% polyester yarn, 30s–60s count, in raw white and dyed options. Kindly confirm packaging and bulk supply terms.</t>
+          <t>I want to source cleaning brushes for household supply. Material: Plastic / Wooden / Steel wire Size: Small–Large Handle: With / Without Usage: Kitchen, floor, industrial</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Need Cement For Construction And Building Projects</t>
+          <t>Need Polyester Yarn For Textile And Fabric Manufacturing</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-cement-for-construction-and-building-projects/880327/</t>
+          <t>https://www.tradewheel.com/buyers/need-polyester-yarn-for-textile-and-fabric-manufacturing/880329/</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Hi, We are sourcing cement for bulk construction supply. Consistency and strength are important. Thank you.</t>
+          <t>We would like to purchase 100% polyester yarn, 30s–60s count, in raw white and dyed options. Kindly confirm packaging and bulk supply terms.</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Need Motorcycle Body Kits For Automotive Market</t>
+          <t>Need Cement For Construction And Building Projects</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-motorcycle-body-kits-for-automotive-market/880326/</t>
+          <t>https://www.tradewheel.com/buyers/need-cement-for-construction-and-building-projects/880327/</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>We would like to order motorcycle body kits in ABS and fiberglass, with durable paint finish and OEM fitment. Kindly confirm model range and delivery schedule.</t>
+          <t>Hi, We are sourcing cement for bulk construction supply. Consistency and strength are important. Thank you.</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Buying Force Sensors &amp; Load Cells With Accurate Performance</t>
+          <t>Need Motorcycle Body Kits For Automotive Market</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-force-sensors-load-cells-with-accurate/880325/</t>
+          <t>https://www.tradewheel.com/buyers/need-motorcycle-body-kits-for-automotive-market/880326/</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>I am sourcing load cells and sensors for industrial supply. Capacity: 1kg–50t Accuracy: ±0.03% Output: mV/V, digital Application: Weighing, automation</t>
+          <t>We would like to order motorcycle body kits in ABS and fiberglass, with durable paint finish and OEM fitment. Kindly confirm model range and delivery schedule.</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Importing Energy Drinks For Beverage Industry from Global suppliers</t>
+          <t>Buying Force Sensors &amp; Load Cells With Accurate Performance</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/importing-energy-drinks-for-beverage-industry-from-global/880324/</t>
+          <t>https://www.tradewheel.com/buyers/buying-force-sensors-load-cells-with-accurate/880325/</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>I want to buy energy drinks for distribution. Volume: 250ml / 500ml Flavor: Regular / Sugar-free Shelf Life: 12–18 months</t>
+          <t>I am sourcing load cells and sensors for industrial supply. Capacity: 1kg–50t Accuracy: ±0.03% Output: mV/V, digital Application: Weighing, automation</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Procuring Energy Drink In Bulk Quantities For Supply</t>
+          <t>Importing Energy Drinks For Beverage Industry from Global suppliers</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/procuring-energy-drink-in-bulk-quantities-for-supply/880323/</t>
+          <t>https://www.tradewheel.com/buyers/importing-energy-drinks-for-beverage-industry-from-global/880324/</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>We would like to order energy drinks in 250ml and 500ml cans, sugar-free and regular options, with long shelf life. Kindly confirm MOQ and private labeling options.</t>
+          <t>I want to buy energy drinks for distribution. Volume: 250ml / 500ml Flavor: Regular / Sugar-free Shelf Life: 12–18 months</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Buying 100% Jute Fabric With Eco-Friendly Quality</t>
+          <t>Procuring Energy Drink In Bulk Quantities For Supply</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-100-jute-fabric-with-eco-friendly-quality/880322/</t>
+          <t>https://www.tradewheel.com/buyers/procuring-energy-drink-in-bulk-quantities-for-supply/880323/</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>I am sourcing 100% jute fabric for bulk use. Material: Pure jute Width: 40–60 inches GSM: 200–500 Application: Bags, upholstery, crafts</t>
+          <t>We would like to order energy drinks in 250ml and 500ml cans, sugar-free and regular options, with long shelf life. Kindly confirm MOQ and private labeling options.</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Procuring Bottles In Bulk Quantities For Trade</t>
+          <t>Buying 100% Jute Fabric With Eco-Friendly Quality</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/procuring-bottles-in-bulk-quantities-for-trade/880321/</t>
+          <t>https://www.tradewheel.com/buyers/buying-100-jute-fabric-with-eco-friendly-quality/880322/</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>We need bulk supply of bottles for beverage packaging, preferably in glass and PET options. Share sizes and closure types available.</t>
+          <t>I am sourcing 100% jute fabric for bulk use. Material: Pure jute Width: 40–60 inches GSM: 200–500 Application: Bags, upholstery, crafts</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Need Cassava Chips For Snack And Food Distribution</t>
+          <t>Procuring Bottles In Bulk Quantities For Trade</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-cassava-chips-for-snack-and-food-distribution/880313/</t>
+          <t>https://www.tradewheel.com/buyers/procuring-bottles-in-bulk-quantities-for-trade/880321/</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Dear Supplier, We would like to order cassava chips in plain and flavored varieties, export-quality packaging, and long shelf life. Kindly confirm MOQ and logistics.</t>
+          <t>We need bulk supply of bottles for beverage packaging, preferably in glass and PET options. Share sizes and closure types available.</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Seeking Bikinis And Beachwear For Swimwear And Fashion Supply</t>
+          <t>Need Cassava Chips For Snack And Food Distribution</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-bikinis-and-beachwear-for-swimwear-and-fashion/880312/</t>
+          <t>https://www.tradewheel.com/buyers/need-cassava-chips-for-snack-and-food-distribution/880313/</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>I am buying bikinis and beachwear for retail supply. Material: Nylon / Polyester / Spandex Sizes: XS–XXL Style: 1-piece / 2-piece / Cover-ups</t>
+          <t>Dear Supplier, We would like to order cassava chips in plain and flavored varieties, export-quality packaging, and long shelf life. Kindly confirm MOQ and logistics.</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Need Barley For Food And Brewing Industry</t>
+          <t>Seeking Bikinis And Beachwear For Swimwear And Fashion Supply</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-barley-for-food-and-brewing-industry/880311/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-bikinis-and-beachwear-for-swimwear-and-fashion/880312/</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>I am sourcing high-quality barley for food and feed. Type: Malting / Feed Moisture:</t>
+          <t>I am buying bikinis and beachwear for retail supply. Material: Nylon / Polyester / Spandex Sizes: XS–XXL Style: 1-piece / 2-piece / Cover-ups</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Need Object Detection System For Industrial And Security Use</t>
+          <t>Need Barley For Food And Brewing Industry</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-object-detection-system-for-industrial-and-security/880310/</t>
+          <t>https://www.tradewheel.com/buyers/need-barley-for-food-and-brewing-industry/880311/</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>I want to buy AI-based object detection systems. Technology: AI / Machine Vision Accuracy: 90%+ Application: Industrial / Security Integration: Customizable</t>
+          <t>I am sourcing high-quality barley for food and feed. Type: Malting / Feed Moisture:</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Buying Gas Generation Equipment With High Performance Standards</t>
+          <t>Need Object Detection System For Industrial And Security Use</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-gas-generation-equipment-with-high-performance-standards/880309/</t>
+          <t>https://www.tradewheel.com/buyers/need-object-detection-system-for-industrial-and-security/880310/</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>I am sourcing gas generation equipment for industrial use. Gas Type: O₂ / N₂ / H₂ Capacity: 10–500 Nm³/hr Power: Electric / Diesel Certification: ISO / CE</t>
+          <t>I want to buy AI-based object detection systems. Technology: AI / Machine Vision Accuracy: 90%+ Application: Industrial / Security Integration: Customizable</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Procuring Fireworks In Bulk Quantities For Retail And Distribution</t>
+          <t>Buying Gas Generation Equipment With High Performance Standards</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/procuring-fireworks-in-bulk-quantities-for-retail-and/880308/</t>
+          <t>https://www.tradewheel.com/buyers/buying-gas-generation-equipment-with-high-performance-standards/880309/</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>I am purchasing assorted fireworks for wholesale. Type: Sparklers, Rockets, Cakes Safety: CE certified Packaging: Mixed cartons MOQ: Negotiable</t>
+          <t>I am sourcing gas generation equipment for industrial use. Gas Type: O₂ / N₂ / H₂ Capacity: 10–500 Nm³/hr Power: Electric / Diesel Certification: ISO / CE</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Procuring Copper Scrap In Bulk Quantities For Manufacturing Supply</t>
+          <t>Procuring Fireworks In Bulk Quantities For Retail And Distribution</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/procuring-copper-scrap-in-bulk-quantities-for-manufacturing/880307/</t>
+          <t>https://www.tradewheel.com/buyers/procuring-fireworks-in-bulk-quantities-for-retail-and/880308/</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>I want copper scrap for recycling and industrial use. Type: Millberry / Wire / Sheet Purity: 99% min Packaging: Bundles / Bales</t>
+          <t>I am purchasing assorted fireworks for wholesale. Type: Sparklers, Rockets, Cakes Safety: CE certified Packaging: Mixed cartons MOQ: Negotiable</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Need Energy Drinks For Retail And Distribution Market</t>
+          <t>Procuring Copper Scrap In Bulk Quantities For Manufacturing Supply</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-energy-drinks-for-retail-and-distribution-market/880306/</t>
+          <t>https://www.tradewheel.com/buyers/procuring-copper-scrap-in-bulk-quantities-for-manufacturing/880307/</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Dear Team, We would like to order canned energy drinks with standard sizes (250ml/500ml), long shelf life, and export-ready packaging. Kindly confirm MOQ and shipping terms.</t>
+          <t>I want copper scrap for recycling and industrial use. Type: Millberry / Wire / Sheet Purity: 99% min Packaging: Bundles / Bales</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Buying Gold Fingers With High Purity And Assured Quality</t>
+          <t>Need Energy Drinks For Retail And Distribution Market</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-gold-fingers-with-high-purity-and-assured/880305/</t>
+          <t>https://www.tradewheel.com/buyers/need-energy-drinks-for-retail-and-distribution-market/880306/</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>We would like to purchase trimmed RAM gold fingers for gold recovery, clean and contamination-free. Kindly confirm supply capacity and payment terms.</t>
+          <t>Dear Team, We would like to order canned energy drinks with standard sizes (250ml/500ml), long shelf life, and export-ready packaging. Kindly confirm MOQ and shipping terms.</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Need Moulds For Industrial And Manufacturing Applications</t>
+          <t>Buying Gold Fingers With High Purity And Assured Quality</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-moulds-for-industrial-and-manufacturing-applications/880304/</t>
+          <t>https://www.tradewheel.com/buyers/buying-gold-fingers-with-high-purity-and-assured/880305/</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Dear Team, We would like to purchase injection moulds and casting moulds with precise finishing, long life, and custom options. Kindly confirm MOQ and delivery terms</t>
+          <t>We would like to purchase trimmed RAM gold fingers for gold recovery, clean and contamination-free. Kindly confirm supply capacity and payment terms.</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Need Roe For Seafood And Export Market</t>
+          <t>Need Moulds For Industrial And Manufacturing Applications</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-roe-for-seafood-and-export-market/880303/</t>
+          <t>https://www.tradewheel.com/buyers/need-moulds-for-industrial-and-manufacturing-applications/880304/</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>I want to source premium fish roe for export. Type: Salmon / Cod / Lumpfish Grade: A Quality Storage: Frozen Packaging: 1–5 kg</t>
+          <t>Dear Team, We would like to purchase injection moulds and casting moulds with precise finishing, long life, and custom options. Kindly confirm MOQ and delivery terms</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Need Leather Wallet For Fashion And Accessories Market</t>
+          <t>Need Roe For Seafood And Export Market</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-leather-wallet-for-fashion-and-accessories-market/880302/</t>
+          <t>https://www.tradewheel.com/buyers/need-roe-for-seafood-and-export-market/880303/</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>I am purchasing leather wallets for retail distribution. Material: 100% Genuine Leather Style: Bi-fold / Tri-fold / Zip Size: Standard / Slim</t>
+          <t>I want to source premium fish roe for export. Type: Salmon / Cod / Lumpfish Grade: A Quality Storage: Frozen Packaging: 1–5 kg</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Need Processors For IT And Computer Market</t>
+          <t>Need Leather Wallet For Fashion And Accessories Market</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-processors-for-it-and-computer-market/880301/</t>
+          <t>https://www.tradewheel.com/buyers/need-leather-wallet-for-fashion-and-accessories-market/880302/</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>I need branded processors for electronics supply. Type: Intel / AMD Generation: Latest models Speed: 2.5 GHz+ Packaging: Boxed or OEM</t>
+          <t>I am purchasing leather wallets for retail distribution. Material: 100% Genuine Leather Style: Bi-fold / Tri-fold / Zip Size: Standard / Slim</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Need Fresh Tomato For Food And Retail Supply</t>
+          <t>Need Processors For IT And Computer Market</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-fresh-tomato-for-food-and-retail-supply/880300/</t>
+          <t>https://www.tradewheel.com/buyers/need-processors-for-it-and-computer-market/880301/</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>I am sourcing farm-fresh tomatoes for wholesale. Type: Round / Roma / Cherry Size: 5–8 cm Origin: Farm grown Packaging: 10–25 kg crates</t>
+          <t>I need branded processors for electronics supply. Type: Intel / AMD Generation: Latest models Speed: 2.5 GHz+ Packaging: Boxed or OEM</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>13 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Buying Sea Cucumber With High Quality And Fresh Standards</t>
+          <t>Need Fresh Tomato For Food And Retail Supply</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-sea-cucumber-with-high-quality-and-fresh/880299/</t>
+          <t>https://www.tradewheel.com/buyers/need-fresh-tomato-for-food-and-retail-supply/880300/</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>I want to buy dried sea cucumbers for bulk supply. Grade: A / B Size: 5–15 cm Processing: Dried / Frozen Packaging: 10–20 kg</t>
+          <t>I am sourcing farm-fresh tomatoes for wholesale. Type: Round / Roma / Cherry Size: 5–8 cm Origin: Farm grown Packaging: 10–25 kg crates</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -4322,891 +4322,891 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>14 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Seeking Sanitary Napkin For Healthcare And Women’s Hygiene Market</t>
+          <t>Buying Sea Cucumber With High Quality And Fresh Standards</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-sanitary-napkin-for-healthcare-and-womens-hygiene/880295/</t>
+          <t>https://www.tradewheel.com/buyers/buying-sea-cucumber-with-high-quality-and-fresh/880299/</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>We are sourcing bulk sanitary napkins for wholesale supply. Layers: 6–8 layers absorbent core Sizes: Day &amp; night use (240mm–320mm) Features: Super absorbent, soft cotton top, wings Packaging: 8–10 pcs per pack Certification: ISO / FDA</t>
+          <t>I want to buy dried sea cucumbers for bulk supply. Grade: A / B Size: 5–15 cm Processing: Dried / Frozen Packaging: 10–20 kg</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>14 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Need Steel Structure For Construction And Industrial Projects</t>
+          <t>Seeking Sanitary Napkin For Healthcare And Women’s Hygiene Market</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-steel-structure-for-construction-and-industrial-projects/880294/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-sanitary-napkin-for-healthcare-and-womens-hygiene/880295/</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>We are sourcing steel structures for construction sites. Can you share load-bearing specifications and if prefabrication services are offered?</t>
+          <t>We are sourcing bulk sanitary napkins for wholesale supply. Layers: 6–8 layers absorbent core Sizes: Day &amp; night use (240mm–320mm) Features: Super absorbent, soft cotton top, wings Packaging: 8–10 pcs per pack Certification: ISO / FDA</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>14 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Seeking Bulldozer For Construction And Mining Industry</t>
+          <t>Need Steel Structure For Construction And Industrial Projects</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-bulldozer-for-construction-and-mining-industry/880293/</t>
+          <t>https://www.tradewheel.com/buyers/need-steel-structure-for-construction-and-industrial-projects/880294/</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>We’re reviewing bulldozer suppliers for heavy-duty projects. What engine power ratings are available and do you supply after-sales service?</t>
+          <t>We are sourcing steel structures for construction sites. Can you share load-bearing specifications and if prefabrication services are offered?</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>14 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Need Fancy Costumes For Events And Entertainment Use</t>
+          <t>Seeking Bulldozer For Construction And Mining Industry</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-fancy-costumes-for-events-and-entertainment-use/880292/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-bulldozer-for-construction-and-mining-industry/880293/</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Our business needs fancy costumes for seasonal sales. Can you provide details on fabric quality and whether customization is possible?</t>
+          <t>We’re reviewing bulldozer suppliers for heavy-duty projects. What engine power ratings are available and do you supply after-sales service?</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>14 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Need Camping And Hiking Gear For Outdoor And Travel Market</t>
+          <t>Need Fancy Costumes For Events And Entertainment Use</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-camping-and-hiking-gear-for-outdoor-and/880291/</t>
+          <t>https://www.tradewheel.com/buyers/need-fancy-costumes-for-events-and-entertainment-use/880292/</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>We are looking at suppliers of camping and hiking gear. Do you have weatherproof tents and what’s the MOQ per model?</t>
+          <t>Our business needs fancy costumes for seasonal sales. Can you provide details on fabric quality and whether customization is possible?</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>14 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Buying Diode Laser Machine With Latest Technology And Warranty</t>
+          <t>Need Camping And Hiking Gear For Outdoor And Travel Market</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-diode-laser-machine-with-latest-technology-and/880290/</t>
+          <t>https://www.tradewheel.com/buyers/need-camping-and-hiking-gear-for-outdoor-and/880291/</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Dear Team, We would like to order 808nm diode laser hair removal machines, with cooling system, touchscreen interface, CE certification, and warranty terms. Kindly confirm supply capacity.</t>
+          <t>We are looking at suppliers of camping and hiking gear. Do you have weatherproof tents and what’s the MOQ per model?</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>14 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Need Used Cars For Automobile And Resale Market</t>
+          <t>Buying Diode Laser Machine With Latest Technology And Warranty</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-used-cars-for-automobile-and-resale-market/880289/</t>
+          <t>https://www.tradewheel.com/buyers/buying-diode-laser-machine-with-latest-technology-and/880290/</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>We need used cars in different makes and models. Please confirm availability and price list.</t>
+          <t>Dear Team, We would like to order 808nm diode laser hair removal machines, with cooling system, touchscreen interface, CE certification, and warranty terms. Kindly confirm supply capacity.</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>14 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Need Furniture Fittings For Interior And Commercial Use</t>
+          <t>Need Used Cars For Automobile And Resale Market</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-furniture-fittings-for-interior-and-commercial-use/880287/</t>
+          <t>https://www.tradewheel.com/buyers/need-used-cars-for-automobile-and-resale-market/880289/</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>We need furniture fittings in bulk. Please confirm available product range and price details.</t>
+          <t>We need used cars in different makes and models. Please confirm availability and price list.</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>14 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Buying Sports Bra And Yoga Pants With Comfortable And Stretchable Material</t>
+          <t>Need Furniture Fittings For Interior And Commercial Use</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-sports-bra-and-yoga-pants-with-comfortable/880286/</t>
+          <t>https://www.tradewheel.com/buyers/need-furniture-fittings-for-interior-and-commercial-use/880287/</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>We require yoga pants and sports bras in assorted colors and sizes. Please confirm designs and bulk pricing.</t>
+          <t>We need furniture fittings in bulk. Please confirm available product range and price details.</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>14 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Buying Mirror Acrylic Sheet With High Clarity And Durability</t>
+          <t>Buying Sports Bra And Yoga Pants With Comfortable And Stretchable Material</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-mirror-acrylic-sheet-with-high-clarity-and/880285/</t>
+          <t>https://www.tradewheel.com/buyers/buying-sports-bra-and-yoga-pants-with-comfortable/880286/</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Hello, We are sourcing mirror acrylic sheets for decoration and industrial use. Clarity and durability are key. Thank you.</t>
+          <t>We require yoga pants and sports bras in assorted colors and sizes. Please confirm designs and bulk pricing.</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>14 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Buying Retract Drill Bits With High Strength And Durability</t>
+          <t>Buying Mirror Acrylic Sheet With High Clarity And Durability</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-retract-drill-bits-with-high-strength-and/880283/</t>
+          <t>https://www.tradewheel.com/buyers/buying-mirror-acrylic-sheet-with-high-clarity-and/880285/</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>We’re sourcing carbide button bits for drilling applications. What is the average lifespan per bit, and do you customize head shapes?</t>
+          <t>Hello, We are sourcing mirror acrylic sheets for decoration and industrial use. Clarity and durability are key. Thank you.</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>14 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Need Marine Transceivers For Communication And Navigation Use</t>
+          <t>Buying Retract Drill Bits With High Strength And Durability</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-marine-transceivers-for-communication-and-navigation-use/880282/</t>
+          <t>https://www.tradewheel.com/buyers/buying-retract-drill-bits-with-high-strength-and/880283/</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Our project requires marine transceivers for offshore communication. Do your models meet international frequency standards and have waterproof certification?</t>
+          <t>We’re sourcing carbide button bits for drilling applications. What is the average lifespan per bit, and do you customize head shapes?</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>14 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Importing iPhone 17 Cover For Mobile Accessories Market from Asian countries</t>
+          <t>Need Marine Transceivers For Communication And Navigation Use</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/importing-iphone-17-cover-for-mobile-accessories-market/880281/</t>
+          <t>https://www.tradewheel.com/buyers/need-marine-transceivers-for-communication-and-navigation-use/880282/</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>We require wholesale supply of iPhone 17 protective covers. Material: TPU, silicone, PC, leather Styles: Clear, printed, shockproof, magnetic Colors: Multiple options available Packaging: Retail blister / polybag MOQ: 5,000 pcs</t>
+          <t>Our project requires marine transceivers for offshore communication. Do your models meet international frequency standards and have waterproof certification?</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>14 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Seeking Fix Bolts For Mechanical And Engineering Applications</t>
+          <t>Importing iPhone 17 Cover For Mobile Accessories Market from Asian countries</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-fix-bolts-for-mechanical-and-engineering-applications/880280/</t>
+          <t>https://www.tradewheel.com/buyers/importing-iphone-17-cover-for-mobile-accessories-market/880281/</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>We require fix bolts in bulk. Please confirm available sizes, material grade, and pricing.</t>
+          <t>We require wholesale supply of iPhone 17 protective covers. Material: TPU, silicone, PC, leather Styles: Clear, printed, shockproof, magnetic Colors: Multiple options available Packaging: Retail blister / polybag MOQ: 5,000 pcs</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Keen To Purchase Climbing Rope</t>
+          <t>Seeking Fix Bolts For Mechanical And Engineering Applications</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/keen-to-purchase-climbing-rope/880245/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-fix-bolts-for-mechanical-and-engineering-applications/880280/</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Our company is interested in sourcing climbing ropes with durability and safety compliance. Please share catalogs, bulk prices, and shipment timelines.</t>
+          <t>We require fix bolts in bulk. Please confirm available sizes, material grade, and pricing.</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Willing to Purchase disposable vapes</t>
+          <t>Keen To Purchase Climbing Rope</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/willing-to-purchase-disposable-vapes/880244/</t>
+          <t>https://www.tradewheel.com/buyers/keen-to-purchase-climbing-rope/880245/</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Our company requires high-quality disposable vapes with certification and consistent performance. Please provide MOQ, price quotations, and shipping details.</t>
+          <t>Our company is interested in sourcing climbing ropes with durability and safety compliance. Please share catalogs, bulk prices, and shipment timelines.</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Need Details For reliable doorbells</t>
+          <t>Willing to Purchase disposable vapes</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-details-for-reliable-doorbells/880243/</t>
+          <t>https://www.tradewheel.com/buyers/willing-to-purchase-disposable-vapes/880244/</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Our company requires reliable doorbells for home and commercial use. Kindly share technical details, MOQ, competitive pricing, and shipping terms.</t>
+          <t>Our company requires high-quality disposable vapes with certification and consistent performance. Please provide MOQ, price quotations, and shipping details.</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Need Prices For earrings in various designs</t>
+          <t>Need Details For reliable doorbells</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-prices-for-earrings-in-various-designs/880242/</t>
+          <t>https://www.tradewheel.com/buyers/need-details-for-reliable-doorbells/880243/</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>We are looking to source earrings in various designs and materials for retail. Suppliers should share catalogs, price offers, and delivery schedules.</t>
+          <t>Our company requires reliable doorbells for home and commercial use. Kindly share technical details, MOQ, competitive pricing, and shipping terms.</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Purchasing Request For anti-wrinkle device</t>
+          <t>Need Prices For earrings in various designs</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/purchasing-request-for-anti-wrinkle-device/880241/</t>
+          <t>https://www.tradewheel.com/buyers/need-prices-for-earrings-in-various-designs/880242/</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Our company seeks reliable suppliers of anti-wrinkle beauty devices with proven effectiveness. Kindly provide catalogs, MOQ, wholesale rates, and shipping details.</t>
+          <t>We are looking to source earrings in various designs and materials for retail. Suppliers should share catalogs, price offers, and delivery schedules.</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Inquiring For refined soybean oil</t>
+          <t>Purchasing Request For anti-wrinkle device</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/inquiring-for-refined-soybean-oil/880240/</t>
+          <t>https://www.tradewheel.com/buyers/purchasing-request-for-anti-wrinkle-device/880241/</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>We are interested in purchasing refined soybean oil suitable for food applications. Suppliers should share prices, packaging options, and delivery schedules.</t>
+          <t>Our company seeks reliable suppliers of anti-wrinkle beauty devices with proven effectiveness. Kindly provide catalogs, MOQ, wholesale rates, and shipping details.</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Requirement For standard grade EPS</t>
+          <t>Inquiring For refined soybean oil</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/requirement-for-standard-grade-eps/880239/</t>
+          <t>https://www.tradewheel.com/buyers/inquiring-for-refined-soybean-oil/880240/</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>We are sourcing standard grade EPS for industrial and packaging use. Suppliers are requested to provide product specifications, rates, and delivery timelines.</t>
+          <t>We are interested in purchasing refined soybean oil suitable for food applications. Suppliers should share prices, packaging options, and delivery schedules.</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Want To Purchase premium vape</t>
+          <t>Requirement For standard grade EPS</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-purchase-premium-vape/880238/</t>
+          <t>https://www.tradewheel.com/buyers/requirement-for-standard-grade-eps/880239/</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>We are seeking reliable suppliers of premium vape devices with various puff counts. Kindly share catalogs, wholesale pricing, and delivery schedules.</t>
+          <t>We are sourcing standard grade EPS for industrial and packaging use. Suppliers are requested to provide product specifications, rates, and delivery timelines.</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Want To Import high-quality lip gloss</t>
+          <t>Want To Purchase premium vape</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-import-high-quality-lip-gloss/880234/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-purchase-premium-vape/880238/</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>We are sourcing high-quality lip gloss in various shades and packaging options. Kindly provide product catalogs, prices, and delivery timelines.</t>
+          <t>We are seeking reliable suppliers of premium vape devices with various puff counts. Kindly share catalogs, wholesale pricing, and delivery schedules.</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Prices For modern ceiling fans</t>
+          <t>Want To Import high-quality lip gloss</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/prices-for-modern-ceiling-fans/880233/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-import-high-quality-lip-gloss/880234/</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Our company is looking for modern ceiling fans with stylish designs and strong performance. Suppliers should provide catalogs, competitive rates, and shipping details.</t>
+          <t>We are sourcing high-quality lip gloss in various shades and packaging options. Kindly provide product catalogs, prices, and delivery timelines.</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Interested In pvc powder coating</t>
+          <t>Prices For modern ceiling fans</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-pvc-powder-coating/880232/</t>
+          <t>https://www.tradewheel.com/buyers/prices-for-modern-ceiling-fans/880233/</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Our company requires high-quality PVC powder coating with durability and consistency. Suppliers should share certifications, quotations, and expected lead times.</t>
+          <t>Our company is looking for modern ceiling fans with stylish designs and strong performance. Suppliers should provide catalogs, competitive rates, and shipping details.</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Searching For durable ATVs</t>
+          <t>Interested In pvc powder coating</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-durable-atvs/880231/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-pvc-powder-coating/880232/</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>We are looking to source durable ATVs for outdoor and recreational use. Kindly provide engine sizes, price quotes, and estimated delivery schedules.</t>
+          <t>Our company requires high-quality PVC powder coating with durability and consistency. Suppliers should share certifications, quotations, and expected lead times.</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Looking For plastic &amp; rubber machinery</t>
+          <t>Searching For durable ATVs</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-plastic-rubber-machinery/880230/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-durable-atvs/880231/</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>We are sourcing advanced plastic &amp; rubber machinery for industrial use. Kindly provide technical specifications, pricing, and delivery lead times.</t>
+          <t>We are looking to source durable ATVs for outdoor and recreational use. Kindly provide engine sizes, price quotes, and estimated delivery schedules.</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>21 hours ago</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Seeking For durable sportswear</t>
+          <t>Looking For plastic &amp; rubber machinery</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-for-durable-sportswear/880229/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-plastic-rubber-machinery/880230/</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>We are looking for stylish and durable sportswear in bulk. Kindly provide size ranges, fabric details, prices, and estimated delivery times.</t>
+          <t>We are sourcing advanced plastic &amp; rubber machinery for industrial use. Kindly provide technical specifications, pricing, and delivery lead times.</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -5218,770 +5218,770 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>21 hours ago</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Want To Acquire durable motorcycle helmets</t>
+          <t>Seeking For durable sportswear</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-acquire-durable-motorcycle-helmets/880228/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-for-durable-sportswear/880229/</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Our company seeks suppliers of lightweight and durable motorcycle helmets. Please share catalogs, quotations, and shipment details.</t>
+          <t>We are looking for stylish and durable sportswear in bulk. Kindly provide size ranges, fabric details, prices, and estimated delivery times.</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>21 hours ago</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Keen To Purchase ultrasonic cleaners</t>
+          <t>Want To Acquire durable motorcycle helmets</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/keen-to-purchase-ultrasonic-cleaners/880227/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-acquire-durable-motorcycle-helmets/880228/</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>We are seeking ultrasonic cleaners for industrial and medical applications. Kindly provide capacity details, technical specs, prices, and delivery times.</t>
+          <t>Our company seeks suppliers of lightweight and durable motorcycle helmets. Please share catalogs, quotations, and shipment details.</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>21 hours ago</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Need Details For Inkjet Printers</t>
+          <t>Keen To Purchase ultrasonic cleaners</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-details-for-inkjet-printers/880226/</t>
+          <t>https://www.tradewheel.com/buyers/keen-to-purchase-ultrasonic-cleaners/880227/</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Our company requires reliable and cost-efficient inkjet printers in bulk. Suppliers are invited to share catalogs, warranty info, quotations, and shipping terms.</t>
+          <t>We are seeking ultrasonic cleaners for industrial and medical applications. Kindly provide capacity details, technical specs, prices, and delivery times.</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>21 hours ago</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Need Prices For Water Filter Parts</t>
+          <t>Need Details For Inkjet Printers</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-prices-for-water-filter-parts/880225/</t>
+          <t>https://www.tradewheel.com/buyers/need-details-for-inkjet-printers/880226/</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>We are sourcing replacement parts for water filters in bulk. Kindly provide product catalogs, compatibility details, price offers, and delivery times.</t>
+          <t>Our company requires reliable and cost-efficient inkjet printers in bulk. Suppliers are invited to share catalogs, warranty info, quotations, and shipping terms.</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>21 hours ago</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Purchasing Request For Power Adapters</t>
+          <t>Need Prices For Water Filter Parts</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/purchasing-request-for-power-adapters/880223/</t>
+          <t>https://www.tradewheel.com/buyers/need-prices-for-water-filter-parts/880225/</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Our company requires durable and efficient power adapters in large quantities. Please share product specifications, MOQ, quotations, and shipping details.</t>
+          <t>We are sourcing replacement parts for water filters in bulk. Kindly provide product catalogs, compatibility details, price offers, and delivery times.</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>21 hours ago</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Inquiring For Barista coffee robots</t>
+          <t>Purchasing Request For Power Adapters</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/inquiring-for-barista-coffee-robots/880222/</t>
+          <t>https://www.tradewheel.com/buyers/purchasing-request-for-power-adapters/880223/</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>We are sourcing barista coffee robots for cafes and events. Kindly provide models, technical specs, price offers, and delivery timelines.</t>
+          <t>Our company requires durable and efficient power adapters in large quantities. Please share product specifications, MOQ, quotations, and shipping details.</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>21 hours ago</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Want To Purchase hair extensions</t>
+          <t>Inquiring For Barista coffee robots</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-purchase-hair-extensions/880221/</t>
+          <t>https://www.tradewheel.com/buyers/inquiring-for-barista-coffee-robots/880222/</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>We are interested in natural and synthetic hair extensions in bulk. Kindly provide length options, quality certifications, pricing, and shipment details.</t>
+          <t>We are sourcing barista coffee robots for cafes and events. Kindly provide models, technical specs, price offers, and delivery timelines.</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Quotation For High Quality Leather bags</t>
+          <t>Need Coffee Beans For Beverage And Food Market</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/quotation-for-high-quality-leather-bags/880220/</t>
+          <t>https://www.tradewheel.com/buyers/need-coffee-beans-for-beverage-and-food-market/880288/</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Our company seeks bulk suppliers of fashionable leather bags. Please share MOQ, customization options, competitive rates, and lead times.</t>
+          <t>Dear Supplier, We would like to purchase Arabica and Robusta coffee beans, washed and natural processed, moisture</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Want To Import authentic Botox</t>
+          <t>Buying Pallet Trucks for resale</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-import-authentic-botox/880219/</t>
+          <t>https://www.tradewheel.com/buyers/buying-pallet-trucks-for-resale/880400/</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Greetings, We are looking to source authentic Botox products for medical and cosmetic use. Kindly provide certifications, packaging details, prices, and delivery terms.</t>
+          <t>Hello dear, We are intending to purchase Pallet Trucks for wholesale. Could you please send us the best price list and proper details.</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Quotation For Milk Powder</t>
+          <t>Need Carpet</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/quotation-for-milk-powder/880218/</t>
+          <t>https://www.tradewheel.com/buyers/need-carpet/880561/</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Greetings, Our company seeks suppliers of milk powder in retail and industrial packaging. Please share quotations, product details, and estimated lead times.</t>
+          <t>NEED CARPET FOR BEST PRICE</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Willing to Procure PK Belt</t>
+          <t>Searching for Fresh Potatoes</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/willing-to-procure-pk-belt/880217/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-fresh-potatoes/880567/</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Hello, We are seeking PK belts for industrial and automotive applications. Please provide specifications, MOQ, price offers, and estimated delivery schedules.</t>
+          <t>hello, could you tell me more about your products? I am searching for suppliers of potato varieties spunta rozetta russet burbank bintje agria can you supply samples? looking for ongoing supply 200kg+ per week based in Dubai</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Interested In Mobile Phone Cases</t>
+          <t>REQUIRED INOXY HAIR SPRAY</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-mobile-phone-cases/880215/</t>
+          <t>https://www.tradewheel.com/buyers/required-inoxy-hair-spray/880568/</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Our company requires protective and trendy phone cases in bulk. Suppliers should provide catalogs, customization options, competitive rates, and shipping terms.</t>
+          <t>Price of ioxyhair miracle spray</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Searching For microwaves Ovens</t>
+          <t>searching for bamboo fiber</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-microwaves-ovens/880214/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-bamboo-fiber/880570/</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>We are looking for energy-efficient microwaves for retail distribution. Kindly provide models, technical specs, pricing, and delivery lead times.</t>
+          <t>I'm a student and I'm doing research on bamboo fibers used in uhpc I wanna ask is it available for sale in Pakistan and also i need only 25 to 30 kg is it possible</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Willing to buy AB Beans</t>
+          <t>Required 100% Pure Castor Oil</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/willing-to-buy-ab-beans/880212/</t>
+          <t>https://www.tradewheel.com/buyers/required-100-pure-castor-oil/880572/</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Our company is interested in importing AB beans in bulk. Reliable suppliers should share quality certifications, packaging options, quotations, and shipment schedules.</t>
+          <t>I would like to buy oil in bulk for Dakar, Senegal. How much will it be and how is the process like?</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Looking For bulk quantities of refined soybean oil</t>
+          <t>Looking for ProMood Premium Vape Pen Kit</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-bulk-quantities-of-refined-soybean-oil/880211/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-promood-premium-vape-pen-kit/880574/</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>We are seeking bulk quantities of refined soybean oil for food processing and retail. Kindly share specifications, packaging options, price quotes, and delivery schedules.</t>
+          <t>Indian price forProMood Premium Vape Pen Kit - High-Quality, Long-Lasting, and Easy to Use</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>In Search For Gift Bags</t>
+          <t>Need Carpet</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-search-for-gift-bags/880210/</t>
+          <t>https://www.tradewheel.com/buyers/need-carpet/880578/</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Good day, We are interested in buying gift bags. Please provide us with details on available sizes and color options. Kind Regards.</t>
+          <t>I need carpet with best price</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Immediate purchase of polyester yarn</t>
+          <t>I need to buy LCD Displays</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/immediate-purchase-of-polyester-yarn/880207/</t>
+          <t>https://www.tradewheel.com/buyers/i-need-to-buy-lcd-displays/880582/</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Hello, I am looking to purchase polyester yarn. Please provide me with available certifications along with pricing. Kind Regards.</t>
+          <t>I'm Nurul, Managing Director of Applied Physics Adventures Ltd. (APAL) in Bangladesh. I need the 776 LCD 3 rows of 7 segment display for my meter. please share me the specification and price.</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>In search for leggings</t>
+          <t>Looking for Wood Pellet</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-search-for-leggings/880206/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-wood-pellet/880587/</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Hello, We are looking to purchase leggings. Please share details on materials used, sizes and color options.</t>
+          <t>Hello, I would like to know the price for a free-delivery transport with a semi-trailer for 23 pallets of wood A1 pellets</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>In Search Of Hardware</t>
+          <t>Looking for jewelry</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-search-of-hardware/880205/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-jewelry/880588/</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Hello, W are looking to purchase hardware items such as door hinges, drawer slides and fasteners.. Please provide us with MOQ along with pricing.</t>
+          <t>hi, I am looking for a bulk order shipment of jewelry cleaning products</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Seeking high quality speakers</t>
+          <t>Interested in Deep Freezer  Showcase Freezer</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-high-quality-speakers/880203/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-deep-freezer-showcase-freezer/880594/</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Hi there, I am looking to purchase high quality speakers. Please provide me with product specifications along with pricing.</t>
+          <t>I am interested in making a bulk order for "Freezer Snowsea Supermarket Glass Door Ice Cream Chest Deep Freezer Showcase Freezer" and would like to inquire about the bulk pricing for this product Thank you</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Planning To Buy Sewing Machines</t>
+          <t>Want to buy aluminum scrap</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-buy-sewing-machines/880202/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-buy-aluminum-scrap/880599/</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Dear Sir, I am interested in buying sewing machines. Could you provide me with availability along with pricing? Kind Regards.</t>
+          <t>I want to buy alloys with low price</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>In Search For Home Decor</t>
+          <t>Interested in Polyurethane foam scraps</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-search-for-home-decor/880200/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-polyurethane-foam-scraps/880628/</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Hello, We would like to purchase home decor items. Please provide us with product details along with pricing. Thank you.</t>
+          <t>I hope this message finds you well. We are interested in sourcing foam scrap grade A and would like to request a quotation from your company. Kindly provide us with the following details: Available grades A and types of foam scrap Pricing (pe...</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>In search for women's underwear</t>
+          <t>Looking for buy fresnel lens</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-search-for-womens-underwear/880199/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-buy-fresnel-lens/880634/</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Hello, We are looking to purchase women's underwear. Kindly provide us with minimum order quantity along with pricing.</t>
+          <t>looking to purchase 1000 mm dia fresnel lens . we will trail with couple of them for testing and theer after will place regular orders of qty.</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Need Set Top Box</t>
+          <t>Seeking for custom golf enclosures</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-set-top-box/880198/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-for-custom-golf-enclosures/880636/</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Hello, We are looking to purchase set top box. Please provide us with your products list along with pricing.</t>
+          <t>Hello, I own a golf retail store in Western Australia and I’m sourcing custom golf enclosures (simulator/impact screen enclosures, or hitting nets/cages) for my customers. Please can you provide the following: 1. Are you a factory or trading...</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Republic of Türkiye</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5991,29 +5991,29 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Need Coffee Beans For Beverage And Food Market</t>
+          <t>We need cable tiles .</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-coffee-beans-for-beverage-and-food-market/880288/</t>
+          <t>https://www.tradewheel.com/buyers/we-need-cable-tiles/880638/</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Dear Supplier, We would like to purchase Arabica and Robusta coffee beans, washed and natural processed, moisture</t>
+          <t>We need cable tiles . Sizes Width : 240 mm Length : 1000 mm Thickness : 3mm / 8 mm &amp; 12 mm Qty 683000 pcs / per each thickness . Please also give unit price for joint peg All cable tiles should be suitable for 33 kV cables .</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -6023,22 +6023,22 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Buying Pallet Trucks for resale</t>
+          <t>Need to buy hydraulic pump parts</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-pallet-trucks-for-resale/880400/</t>
+          <t>https://www.tradewheel.com/buyers/need-to-buy-hydraulic-pump-parts/880641/</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Hello dear, We are intending to purchase Pallet Trucks for wholesale. Could you please send us the best price list and proper details.</t>
+          <t>I need ec 200 hydraulic pump parts with loose parts</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -6070,7 +6070,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -6134,7 +6134,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -6166,7 +6166,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -6198,7 +6198,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -6230,7 +6230,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -6262,7 +6262,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -6358,7 +6358,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -6390,7 +6390,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -6422,7 +6422,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -6454,7 +6454,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -6518,7 +6518,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -6550,7 +6550,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -6582,7 +6582,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -6614,7 +6614,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -6678,7 +6678,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -6710,7 +6710,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -6742,7 +6742,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2025-09-29 12:14:38</t>
+          <t>2025-09-29 16:18:10</t>
         </is>
       </c>
     </row>
